--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20346"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3448BAE-3C70-4EAC-BBE3-2DF4BDC40373}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBD18FF-CDD9-48DE-B847-ECB15B95A6F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="205">
   <si>
     <t>ID</t>
   </si>
@@ -352,16 +352,289 @@
     <t>Audio listened</t>
   </si>
   <si>
-    <t>upload status</t>
-  </si>
-  <si>
-    <t>status uploaded</t>
-  </si>
-  <si>
-    <t>Status is uploaded or not</t>
-  </si>
-  <si>
-    <t>click on sta</t>
+    <t>group call</t>
+  </si>
+  <si>
+    <t>group call made</t>
+  </si>
+  <si>
+    <t>group call can be done or not</t>
+  </si>
+  <si>
+    <t>click on the group</t>
+  </si>
+  <si>
+    <t>group opens</t>
+  </si>
+  <si>
+    <t>click on the phone icon</t>
+  </si>
+  <si>
+    <t>list of group members opens</t>
+  </si>
+  <si>
+    <t>select the contacts you wanna call</t>
+  </si>
+  <si>
+    <t>selected</t>
+  </si>
+  <si>
+    <t>press ok</t>
+  </si>
+  <si>
+    <t>call made</t>
+  </si>
+  <si>
+    <t>call to contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> call made</t>
+  </si>
+  <si>
+    <t>call can be made or not</t>
+  </si>
+  <si>
+    <t>click on the contact you wanna call</t>
+  </si>
+  <si>
+    <t>contact opens opens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no notification </t>
+  </si>
+  <si>
+    <t>notification off for new message</t>
+  </si>
+  <si>
+    <t>notification appears or not</t>
+  </si>
+  <si>
+    <t>click on 3 dots</t>
+  </si>
+  <si>
+    <t>list opens</t>
+  </si>
+  <si>
+    <t>click on privacy</t>
+  </si>
+  <si>
+    <t>click on notification</t>
+  </si>
+  <si>
+    <t>click on turn off notification</t>
+  </si>
+  <si>
+    <t>notification turn off</t>
+  </si>
+  <si>
+    <t>notification tone</t>
+  </si>
+  <si>
+    <t>tone is working</t>
+  </si>
+  <si>
+    <t>notification tone is working or not</t>
+  </si>
+  <si>
+    <t>click on notification tone</t>
+  </si>
+  <si>
+    <t>list of tones appears</t>
+  </si>
+  <si>
+    <t>select the tone you wanna listen when you received message</t>
+  </si>
+  <si>
+    <t>tone is selected</t>
+  </si>
+  <si>
+    <t>Vibration when you receive message</t>
+  </si>
+  <si>
+    <t>vibration is working</t>
+  </si>
+  <si>
+    <t>vibration function is working or not</t>
+  </si>
+  <si>
+    <t>click on vibrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select the time for which you want your phone to vibrate </t>
+  </si>
+  <si>
+    <t>Vibration is working</t>
+  </si>
+  <si>
+    <t>Turn off vibration</t>
+  </si>
+  <si>
+    <t>vibration is off</t>
+  </si>
+  <si>
+    <t>vibration off function is working or not</t>
+  </si>
+  <si>
+    <t>select the turn off function</t>
+  </si>
+  <si>
+    <t>Vibration is off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notification popup </t>
+  </si>
+  <si>
+    <t>popup is working</t>
+  </si>
+  <si>
+    <t>Notification popup is working or not</t>
+  </si>
+  <si>
+    <t>click on popup notification</t>
+  </si>
+  <si>
+    <t>select the always show popup function</t>
+  </si>
+  <si>
+    <t>notification always popup</t>
+  </si>
+  <si>
+    <t>Notification popup turn off</t>
+  </si>
+  <si>
+    <t>popup is off</t>
+  </si>
+  <si>
+    <t>Notification popup is off or not</t>
+  </si>
+  <si>
+    <t>select the no  popup function</t>
+  </si>
+  <si>
+    <t>Notification popup when screen on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">popup is on </t>
+  </si>
+  <si>
+    <t>Notification popup is working when screen is on or not</t>
+  </si>
+  <si>
+    <t>select the only when screen on popup function</t>
+  </si>
+  <si>
+    <t>popup is working when screen on</t>
+  </si>
+  <si>
+    <t>Notification light</t>
+  </si>
+  <si>
+    <t>Notification light is working or not</t>
+  </si>
+  <si>
+    <t>click on light notification</t>
+  </si>
+  <si>
+    <t>select the light you wanna see with notification</t>
+  </si>
+  <si>
+    <t>light function is working</t>
+  </si>
+  <si>
+    <t>Notification light turn off</t>
+  </si>
+  <si>
+    <t>light appears</t>
+  </si>
+  <si>
+    <t>no light appears</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select theturn off light </t>
+  </si>
+  <si>
+    <t>light function is off</t>
+  </si>
+  <si>
+    <t>Ringtone for call</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on ringtone </t>
+  </si>
+  <si>
+    <t>select the ringtone you wanna hear when receive a call</t>
+  </si>
+  <si>
+    <t>ringtone is working</t>
+  </si>
+  <si>
+    <t>Notification ringtone is working or not</t>
+  </si>
+  <si>
+    <t>Ringtone turn off</t>
+  </si>
+  <si>
+    <t>ringtone heared</t>
+  </si>
+  <si>
+    <t>no ringtone heared</t>
+  </si>
+  <si>
+    <t>select the option none</t>
+  </si>
+  <si>
+    <t>ringtone is off</t>
+  </si>
+  <si>
+    <t>who can see your last seen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last seen working </t>
+  </si>
+  <si>
+    <t>Last seen is working or not</t>
+  </si>
+  <si>
+    <t>click on setting</t>
+  </si>
+  <si>
+    <t>click on last seen and online</t>
+  </si>
+  <si>
+    <t>go to who can see when I am online</t>
+  </si>
+  <si>
+    <t>list appears</t>
+  </si>
+  <si>
+    <t>click on everyone</t>
+  </si>
+  <si>
+    <t>last seen is working</t>
+  </si>
+  <si>
+    <t>go to who can see my last seen</t>
+  </si>
+  <si>
+    <t>Turn off who can see your last seen</t>
+  </si>
+  <si>
+    <t>click on nobody</t>
+  </si>
+  <si>
+    <t>last seen appears to no one</t>
+  </si>
+  <si>
+    <t>who can see I am online</t>
+  </si>
+  <si>
+    <t>online appears</t>
+  </si>
+  <si>
+    <t>online function is working or not</t>
+  </si>
+  <si>
+    <t>online function is working</t>
   </si>
 </sst>
 </file>
@@ -425,13 +698,13 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
@@ -714,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:R231"/>
+  <dimension ref="A2:R505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="C226" sqref="C226:H226"/>
+    <sheetView tabSelected="1" topLeftCell="A491" workbookViewId="0">
+      <selection activeCell="P503" sqref="P503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,202 +1039,202 @@
         <v>4</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="R6" s="5"/>
+      <c r="D6" s="7"/>
+      <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="4"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -979,10 +1252,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
@@ -1007,197 +1280,197 @@
         <v>4</v>
       </c>
       <c r="B29" s="9"/>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="9"/>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="4"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="2"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7" t="s">
+      <c r="A32" s="4"/>
+      <c r="B32" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7" t="s">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1" t="s">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1" t="s">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2" t="s">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2" t="s">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2" t="s">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2" t="s">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
@@ -1213,10 +1486,10 @@
         <v>1</v>
       </c>
       <c r="B46" s="8"/>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="1"/>
+      <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
@@ -1241,186 +1514,186 @@
         <v>4</v>
       </c>
       <c r="B49" s="9"/>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D49" s="1"/>
+      <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B50" s="9"/>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="4"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="2"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="7" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7" t="s">
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1" t="s">
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1" t="s">
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2" t="s">
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2" t="s">
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2" t="s">
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2" t="s">
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2" t="s">
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
     </row>
     <row r="64" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
@@ -1436,10 +1709,10 @@
         <v>1</v>
       </c>
       <c r="B65" s="8"/>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="1"/>
+      <c r="D65" s="7"/>
     </row>
     <row r="66" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
@@ -1464,224 +1737,224 @@
         <v>4</v>
       </c>
       <c r="B68" s="9"/>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D68" s="1"/>
+      <c r="D68" s="7"/>
     </row>
     <row r="69" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B69" s="9"/>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="1"/>
-      <c r="E69" s="4"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="2"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
-      <c r="B71" s="7" t="s">
+      <c r="A71" s="4"/>
+      <c r="B71" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7" t="s">
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1" t="s">
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1" t="s">
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2" t="s">
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2" t="s">
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2" t="s">
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2" t="s">
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2" t="s">
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2" t="s">
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2" t="s">
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2" t="s">
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
     </row>
     <row r="89" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
@@ -1697,10 +1970,10 @@
         <v>1</v>
       </c>
       <c r="B90" s="8"/>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D90" s="1"/>
+      <c r="D90" s="7"/>
     </row>
     <row r="91" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
@@ -1725,174 +1998,174 @@
         <v>4</v>
       </c>
       <c r="B93" s="9"/>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D93" s="1"/>
+      <c r="D93" s="7"/>
     </row>
     <row r="94" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B94" s="9"/>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D94" s="1"/>
-      <c r="E94" s="4"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="2"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="6"/>
-      <c r="B96" s="7" t="s">
+      <c r="A96" s="4"/>
+      <c r="B96" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7" t="s">
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1" t="s">
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1" t="s">
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2" t="s">
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
-      <c r="K99" s="2"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2" t="s">
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2" t="s">
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2" t="s">
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2" t="s">
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1910,10 +2183,10 @@
         <v>1</v>
       </c>
       <c r="B108" s="8"/>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D108" s="1"/>
+      <c r="D108" s="7"/>
     </row>
     <row r="109" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
@@ -1938,166 +2211,166 @@
         <v>4</v>
       </c>
       <c r="B111" s="9"/>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D111" s="1"/>
+      <c r="D111" s="7"/>
     </row>
     <row r="112" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B112" s="9"/>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D112" s="1"/>
-      <c r="E112" s="4"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="2"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="6"/>
-      <c r="B114" s="7" t="s">
+      <c r="A114" s="4"/>
+      <c r="B114" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="7" t="s">
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I114" s="7"/>
-      <c r="J114" s="7"/>
-      <c r="K114" s="7"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1" t="s">
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
-      <c r="K115" s="1"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
+      <c r="K115" s="7"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1" t="s">
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="7"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2" t="s">
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
-      <c r="K117" s="2"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2" t="s">
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
-      <c r="K118" s="2"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2" t="s">
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
-      <c r="K119" s="2"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-      <c r="J120" s="2"/>
-      <c r="K120" s="2"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
-      <c r="K121" s="2"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2115,10 +2388,10 @@
         <v>1</v>
       </c>
       <c r="B126" s="8"/>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D126" s="1"/>
+      <c r="D126" s="7"/>
     </row>
     <row r="127" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
@@ -2143,170 +2416,170 @@
         <v>4</v>
       </c>
       <c r="B129" s="9"/>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D129" s="1"/>
+      <c r="D129" s="7"/>
     </row>
     <row r="130" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B130" s="9"/>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D130" s="1"/>
-      <c r="E130" s="4"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="2"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="6"/>
-      <c r="B132" s="7" t="s">
+      <c r="A132" s="4"/>
+      <c r="B132" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="7" t="s">
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I132" s="7"/>
-      <c r="J132" s="7"/>
-      <c r="K132" s="7"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="6"/>
+      <c r="K132" s="6"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1" t="s">
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
-      <c r="K133" s="1"/>
+      <c r="I133" s="7"/>
+      <c r="J133" s="7"/>
+      <c r="K133" s="7"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1" t="s">
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
-      <c r="K134" s="1"/>
+      <c r="I134" s="7"/>
+      <c r="J134" s="7"/>
+      <c r="K134" s="7"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2" t="s">
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I135" s="2"/>
-      <c r="J135" s="2"/>
-      <c r="K135" s="2"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="5"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2" t="s">
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I136" s="2"/>
-      <c r="J136" s="2"/>
-      <c r="K136" s="2"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="5"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
-      <c r="H137" s="2" t="s">
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I137" s="2"/>
-      <c r="J137" s="2"/>
-      <c r="K137" s="2"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="5"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2" t="s">
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I138" s="2"/>
-      <c r="J138" s="2"/>
-      <c r="K138" s="2"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="5"/>
+      <c r="K138" s="5"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2"/>
-      <c r="K139" s="2"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5"/>
+      <c r="K139" s="5"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2324,10 +2597,10 @@
         <v>1</v>
       </c>
       <c r="B145" s="8"/>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D145" s="1"/>
+      <c r="D145" s="7"/>
     </row>
     <row r="146" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
@@ -2352,170 +2625,170 @@
         <v>4</v>
       </c>
       <c r="B148" s="9"/>
-      <c r="C148" s="1" t="s">
+      <c r="C148" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D148" s="1"/>
+      <c r="D148" s="7"/>
     </row>
     <row r="149" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B149" s="9"/>
-      <c r="C149" s="1" t="s">
+      <c r="C149" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D149" s="1"/>
-      <c r="E149" s="4"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="2"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="6"/>
-      <c r="B151" s="7" t="s">
+      <c r="A151" s="4"/>
+      <c r="B151" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
-      <c r="E151" s="7"/>
-      <c r="F151" s="7"/>
-      <c r="G151" s="7"/>
-      <c r="H151" s="7" t="s">
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I151" s="7"/>
-      <c r="J151" s="7"/>
-      <c r="K151" s="7"/>
+      <c r="I151" s="6"/>
+      <c r="J151" s="6"/>
+      <c r="K151" s="6"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
-      <c r="H152" s="1" t="s">
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="7"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I152" s="1"/>
-      <c r="J152" s="1"/>
-      <c r="K152" s="1"/>
+      <c r="I152" s="7"/>
+      <c r="J152" s="7"/>
+      <c r="K152" s="7"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
-      <c r="G153" s="1"/>
-      <c r="H153" s="1" t="s">
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7"/>
+      <c r="G153" s="7"/>
+      <c r="H153" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I153" s="1"/>
-      <c r="J153" s="1"/>
-      <c r="K153" s="1"/>
+      <c r="I153" s="7"/>
+      <c r="J153" s="7"/>
+      <c r="K153" s="7"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
-      <c r="G154" s="2"/>
-      <c r="H154" s="2" t="s">
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I154" s="2"/>
-      <c r="J154" s="2"/>
-      <c r="K154" s="2"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="5"/>
+      <c r="K154" s="5"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-      <c r="G155" s="2"/>
-      <c r="H155" s="2" t="s">
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I155" s="2"/>
-      <c r="J155" s="2"/>
-      <c r="K155" s="2"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="5"/>
+      <c r="K155" s="5"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
-      <c r="H156" s="2" t="s">
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I156" s="2"/>
-      <c r="J156" s="2"/>
-      <c r="K156" s="2"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5"/>
+      <c r="K156" s="5"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-      <c r="G157" s="2"/>
-      <c r="H157" s="2" t="s">
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I157" s="2"/>
-      <c r="J157" s="2"/>
-      <c r="K157" s="2"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="5"/>
+      <c r="K157" s="5"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
-      <c r="G158" s="2"/>
-      <c r="H158" s="2"/>
-      <c r="I158" s="2"/>
-      <c r="J158" s="2"/>
-      <c r="K158" s="2"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="5"/>
+      <c r="K158" s="5"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2533,10 +2806,10 @@
         <v>1</v>
       </c>
       <c r="B164" s="8"/>
-      <c r="C164" s="1" t="s">
+      <c r="C164" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D164" s="1"/>
+      <c r="D164" s="7"/>
     </row>
     <row r="165" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
@@ -2561,152 +2834,152 @@
         <v>4</v>
       </c>
       <c r="B167" s="9"/>
-      <c r="C167" s="1" t="s">
+      <c r="C167" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D167" s="1"/>
+      <c r="D167" s="7"/>
     </row>
     <row r="168" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B168" s="9"/>
-      <c r="C168" s="1" t="s">
+      <c r="C168" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D168" s="1"/>
-      <c r="E168" s="4"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="2"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="6"/>
-      <c r="B170" s="7" t="s">
+      <c r="A170" s="4"/>
+      <c r="B170" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C170" s="7"/>
-      <c r="D170" s="7"/>
-      <c r="E170" s="7"/>
-      <c r="F170" s="7"/>
-      <c r="G170" s="7"/>
-      <c r="H170" s="7" t="s">
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I170" s="7"/>
-      <c r="J170" s="7"/>
-      <c r="K170" s="7"/>
+      <c r="I170" s="6"/>
+      <c r="J170" s="6"/>
+      <c r="K170" s="6"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B171" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-      <c r="G171" s="1"/>
-      <c r="H171" s="1" t="s">
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
+      <c r="H171" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I171" s="1"/>
-      <c r="J171" s="1"/>
-      <c r="K171" s="1"/>
+      <c r="I171" s="7"/>
+      <c r="J171" s="7"/>
+      <c r="K171" s="7"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="3" t="s">
+      <c r="A172" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B172" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-      <c r="G172" s="1"/>
-      <c r="H172" s="1" t="s">
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="7"/>
+      <c r="F172" s="7"/>
+      <c r="G172" s="7"/>
+      <c r="H172" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I172" s="1"/>
-      <c r="J172" s="1"/>
-      <c r="K172" s="1"/>
+      <c r="I172" s="7"/>
+      <c r="J172" s="7"/>
+      <c r="K172" s="7"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="3" t="s">
+      <c r="A173" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
-      <c r="H173" s="2" t="s">
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I173" s="2"/>
-      <c r="J173" s="2"/>
-      <c r="K173" s="2"/>
+      <c r="I173" s="5"/>
+      <c r="J173" s="5"/>
+      <c r="K173" s="5"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="3" t="s">
+      <c r="A174" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2" t="s">
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I174" s="2"/>
-      <c r="J174" s="2"/>
-      <c r="K174" s="2"/>
+      <c r="I174" s="5"/>
+      <c r="J174" s="5"/>
+      <c r="K174" s="5"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
-      <c r="G175" s="2"/>
-      <c r="H175" s="2" t="s">
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I175" s="2"/>
-      <c r="J175" s="2"/>
-      <c r="K175" s="2"/>
+      <c r="I175" s="5"/>
+      <c r="J175" s="5"/>
+      <c r="K175" s="5"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="3" t="s">
+      <c r="A176" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
-      <c r="F176" s="2"/>
-      <c r="G176" s="2"/>
-      <c r="H176" s="2" t="s">
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="I176" s="2"/>
-      <c r="J176" s="2"/>
-      <c r="K176" s="2"/>
+      <c r="I176" s="5"/>
+      <c r="J176" s="5"/>
+      <c r="K176" s="5"/>
     </row>
     <row r="182" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
@@ -2722,10 +2995,10 @@
         <v>1</v>
       </c>
       <c r="B183" s="8"/>
-      <c r="C183" s="1" t="s">
+      <c r="C183" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D183" s="1"/>
+      <c r="D183" s="7"/>
     </row>
     <row r="184" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
@@ -2750,170 +3023,170 @@
         <v>4</v>
       </c>
       <c r="B186" s="9"/>
-      <c r="C186" s="1" t="s">
+      <c r="C186" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D186" s="1"/>
+      <c r="D186" s="7"/>
     </row>
     <row r="187" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B187" s="9"/>
-      <c r="C187" s="1" t="s">
+      <c r="C187" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D187" s="1"/>
-      <c r="E187" s="4"/>
+      <c r="D187" s="7"/>
+      <c r="E187" s="2"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" s="6"/>
-      <c r="B189" s="7" t="s">
+      <c r="A189" s="4"/>
+      <c r="B189" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C189" s="7"/>
-      <c r="D189" s="7"/>
-      <c r="E189" s="7"/>
-      <c r="F189" s="7"/>
-      <c r="G189" s="7"/>
-      <c r="H189" s="7" t="s">
+      <c r="C189" s="6"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="6"/>
+      <c r="H189" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I189" s="7"/>
-      <c r="J189" s="7"/>
-      <c r="K189" s="7"/>
+      <c r="I189" s="6"/>
+      <c r="J189" s="6"/>
+      <c r="K189" s="6"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" s="3" t="s">
+      <c r="A190" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B190" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
-      <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
-      <c r="G190" s="1"/>
-      <c r="H190" s="1" t="s">
+      <c r="C190" s="7"/>
+      <c r="D190" s="7"/>
+      <c r="E190" s="7"/>
+      <c r="F190" s="7"/>
+      <c r="G190" s="7"/>
+      <c r="H190" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I190" s="1"/>
-      <c r="J190" s="1"/>
-      <c r="K190" s="1"/>
+      <c r="I190" s="7"/>
+      <c r="J190" s="7"/>
+      <c r="K190" s="7"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" s="3" t="s">
+      <c r="A191" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B191" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
-      <c r="E191" s="1"/>
-      <c r="F191" s="1"/>
-      <c r="G191" s="1"/>
-      <c r="H191" s="1" t="s">
+      <c r="C191" s="7"/>
+      <c r="D191" s="7"/>
+      <c r="E191" s="7"/>
+      <c r="F191" s="7"/>
+      <c r="G191" s="7"/>
+      <c r="H191" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I191" s="1"/>
-      <c r="J191" s="1"/>
-      <c r="K191" s="1"/>
+      <c r="I191" s="7"/>
+      <c r="J191" s="7"/>
+      <c r="K191" s="7"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192" s="3" t="s">
+      <c r="A192" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C192" s="2"/>
-      <c r="D192" s="2"/>
-      <c r="E192" s="2"/>
-      <c r="F192" s="2"/>
-      <c r="G192" s="2"/>
-      <c r="H192" s="2" t="s">
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I192" s="2"/>
-      <c r="J192" s="2"/>
-      <c r="K192" s="2"/>
+      <c r="I192" s="5"/>
+      <c r="J192" s="5"/>
+      <c r="K192" s="5"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" s="3" t="s">
+      <c r="A193" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
-      <c r="E193" s="2"/>
-      <c r="F193" s="2"/>
-      <c r="G193" s="2"/>
-      <c r="H193" s="2" t="s">
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="5"/>
+      <c r="H193" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I193" s="2"/>
-      <c r="J193" s="2"/>
-      <c r="K193" s="2"/>
+      <c r="I193" s="5"/>
+      <c r="J193" s="5"/>
+      <c r="K193" s="5"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="3" t="s">
+      <c r="A194" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
-      <c r="E194" s="2"/>
-      <c r="F194" s="2"/>
-      <c r="G194" s="2"/>
-      <c r="H194" s="2" t="s">
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I194" s="2"/>
-      <c r="J194" s="2"/>
-      <c r="K194" s="2"/>
+      <c r="I194" s="5"/>
+      <c r="J194" s="5"/>
+      <c r="K194" s="5"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C195" s="2"/>
-      <c r="D195" s="2"/>
-      <c r="E195" s="2"/>
-      <c r="F195" s="2"/>
-      <c r="G195" s="2"/>
-      <c r="H195" s="2" t="s">
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="I195" s="2"/>
-      <c r="J195" s="2"/>
-      <c r="K195" s="2"/>
+      <c r="I195" s="5"/>
+      <c r="J195" s="5"/>
+      <c r="K195" s="5"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="3" t="s">
+      <c r="A196" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
-      <c r="D196" s="2"/>
-      <c r="E196" s="2"/>
-      <c r="F196" s="2"/>
-      <c r="G196" s="2"/>
-      <c r="H196" s="2"/>
-      <c r="I196" s="2"/>
-      <c r="J196" s="2"/>
-      <c r="K196" s="2"/>
+      <c r="B196" s="5"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="5"/>
+      <c r="I196" s="5"/>
+      <c r="J196" s="5"/>
+      <c r="K196" s="5"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="3" t="s">
+      <c r="A197" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2931,10 +3204,10 @@
         <v>1</v>
       </c>
       <c r="B200" s="8"/>
-      <c r="C200" s="1" t="s">
+      <c r="C200" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D200" s="1"/>
+      <c r="D200" s="7"/>
     </row>
     <row r="201" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
@@ -2959,166 +3232,166 @@
         <v>4</v>
       </c>
       <c r="B203" s="9"/>
-      <c r="C203" s="1" t="s">
+      <c r="C203" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D203" s="1"/>
+      <c r="D203" s="7"/>
     </row>
     <row r="204" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B204" s="9"/>
-      <c r="C204" s="1" t="s">
+      <c r="C204" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D204" s="1"/>
-      <c r="E204" s="4"/>
+      <c r="D204" s="7"/>
+      <c r="E204" s="2"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" s="6"/>
-      <c r="B206" s="7" t="s">
+      <c r="A206" s="4"/>
+      <c r="B206" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C206" s="7"/>
-      <c r="D206" s="7"/>
-      <c r="E206" s="7"/>
-      <c r="F206" s="7"/>
-      <c r="G206" s="7"/>
-      <c r="H206" s="7" t="s">
+      <c r="C206" s="6"/>
+      <c r="D206" s="6"/>
+      <c r="E206" s="6"/>
+      <c r="F206" s="6"/>
+      <c r="G206" s="6"/>
+      <c r="H206" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I206" s="7"/>
-      <c r="J206" s="7"/>
-      <c r="K206" s="7"/>
+      <c r="I206" s="6"/>
+      <c r="J206" s="6"/>
+      <c r="K206" s="6"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="3" t="s">
+      <c r="A207" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B207" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C207" s="1"/>
-      <c r="D207" s="1"/>
-      <c r="E207" s="1"/>
-      <c r="F207" s="1"/>
-      <c r="G207" s="1"/>
-      <c r="H207" s="1" t="s">
+      <c r="C207" s="7"/>
+      <c r="D207" s="7"/>
+      <c r="E207" s="7"/>
+      <c r="F207" s="7"/>
+      <c r="G207" s="7"/>
+      <c r="H207" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I207" s="1"/>
-      <c r="J207" s="1"/>
-      <c r="K207" s="1"/>
+      <c r="I207" s="7"/>
+      <c r="J207" s="7"/>
+      <c r="K207" s="7"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="3" t="s">
+      <c r="A208" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B208" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C208" s="1"/>
-      <c r="D208" s="1"/>
-      <c r="E208" s="1"/>
-      <c r="F208" s="1"/>
-      <c r="G208" s="1"/>
-      <c r="H208" s="1" t="s">
+      <c r="C208" s="7"/>
+      <c r="D208" s="7"/>
+      <c r="E208" s="7"/>
+      <c r="F208" s="7"/>
+      <c r="G208" s="7"/>
+      <c r="H208" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I208" s="1"/>
-      <c r="J208" s="1"/>
-      <c r="K208" s="1"/>
+      <c r="I208" s="7"/>
+      <c r="J208" s="7"/>
+      <c r="K208" s="7"/>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A209" s="3" t="s">
+      <c r="A209" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B209" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C209" s="2"/>
-      <c r="D209" s="2"/>
-      <c r="E209" s="2"/>
-      <c r="F209" s="2"/>
-      <c r="G209" s="2"/>
-      <c r="H209" s="2" t="s">
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5"/>
+      <c r="F209" s="5"/>
+      <c r="G209" s="5"/>
+      <c r="H209" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="I209" s="2"/>
-      <c r="J209" s="2"/>
-      <c r="K209" s="2"/>
+      <c r="I209" s="5"/>
+      <c r="J209" s="5"/>
+      <c r="K209" s="5"/>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A210" s="3" t="s">
+      <c r="A210" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B210" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C210" s="2"/>
-      <c r="D210" s="2"/>
-      <c r="E210" s="2"/>
-      <c r="F210" s="2"/>
-      <c r="G210" s="2"/>
-      <c r="H210" s="2" t="s">
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+      <c r="G210" s="5"/>
+      <c r="H210" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I210" s="2"/>
-      <c r="J210" s="2"/>
-      <c r="K210" s="2"/>
+      <c r="I210" s="5"/>
+      <c r="J210" s="5"/>
+      <c r="K210" s="5"/>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A211" s="3" t="s">
+      <c r="A211" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B211" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
-      <c r="F211" s="2"/>
-      <c r="G211" s="2"/>
-      <c r="H211" s="2" t="s">
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+      <c r="G211" s="5"/>
+      <c r="H211" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I211" s="2"/>
-      <c r="J211" s="2"/>
-      <c r="K211" s="2"/>
+      <c r="I211" s="5"/>
+      <c r="J211" s="5"/>
+      <c r="K211" s="5"/>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A212" s="3" t="s">
+      <c r="A212" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
-      <c r="D212" s="2"/>
-      <c r="E212" s="2"/>
-      <c r="F212" s="2"/>
-      <c r="G212" s="2"/>
-      <c r="H212" s="2"/>
-      <c r="I212" s="2"/>
-      <c r="J212" s="2"/>
-      <c r="K212" s="2"/>
+      <c r="B212" s="5"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+      <c r="G212" s="5"/>
+      <c r="H212" s="5"/>
+      <c r="I212" s="5"/>
+      <c r="J212" s="5"/>
+      <c r="K212" s="5"/>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A213" s="3" t="s">
+      <c r="A213" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B213" s="2"/>
-      <c r="C213" s="2"/>
-      <c r="D213" s="2"/>
-      <c r="E213" s="2"/>
-      <c r="F213" s="2"/>
-      <c r="G213" s="2"/>
-      <c r="H213" s="2"/>
-      <c r="I213" s="2"/>
-      <c r="J213" s="2"/>
-      <c r="K213" s="2"/>
+      <c r="B213" s="5"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="5"/>
+      <c r="I213" s="5"/>
+      <c r="J213" s="5"/>
+      <c r="K213" s="5"/>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A214" s="3" t="s">
+      <c r="A214" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3136,10 +3409,10 @@
         <v>1</v>
       </c>
       <c r="C218" s="8"/>
-      <c r="D218" s="1" t="s">
+      <c r="D218" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E218" s="1"/>
+      <c r="E218" s="7"/>
     </row>
     <row r="219" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B219" s="8" t="s">
@@ -3164,427 +3437,3824 @@
         <v>4</v>
       </c>
       <c r="C221" s="9"/>
-      <c r="D221" s="1" t="s">
+      <c r="D221" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E221" s="1"/>
+      <c r="E221" s="7"/>
     </row>
     <row r="222" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B222" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C222" s="9"/>
-      <c r="D222" s="1" t="s">
+      <c r="D222" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E222" s="1"/>
-      <c r="F222" s="4"/>
+      <c r="E222" s="7"/>
+      <c r="F222" s="2"/>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B224" s="6"/>
-      <c r="C224" s="7" t="s">
+      <c r="B224" s="4"/>
+      <c r="C224" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D224" s="7"/>
-      <c r="E224" s="7"/>
-      <c r="F224" s="7"/>
-      <c r="G224" s="7"/>
-      <c r="H224" s="7"/>
-      <c r="I224" s="7" t="s">
+      <c r="D224" s="6"/>
+      <c r="E224" s="6"/>
+      <c r="F224" s="6"/>
+      <c r="G224" s="6"/>
+      <c r="H224" s="6"/>
+      <c r="I224" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J224" s="7"/>
-      <c r="K224" s="7"/>
-      <c r="L224" s="7"/>
+      <c r="J224" s="6"/>
+      <c r="K224" s="6"/>
+      <c r="L224" s="6"/>
     </row>
     <row r="225" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B225" s="3" t="s">
+      <c r="B225" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="C225" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D225" s="1"/>
-      <c r="E225" s="1"/>
-      <c r="F225" s="1"/>
-      <c r="G225" s="1"/>
-      <c r="H225" s="1"/>
-      <c r="I225" s="1" t="s">
+      <c r="D225" s="7"/>
+      <c r="E225" s="7"/>
+      <c r="F225" s="7"/>
+      <c r="G225" s="7"/>
+      <c r="H225" s="7"/>
+      <c r="I225" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J225" s="1"/>
-      <c r="K225" s="1"/>
-      <c r="L225" s="1"/>
+      <c r="J225" s="7"/>
+      <c r="K225" s="7"/>
+      <c r="L225" s="7"/>
     </row>
     <row r="226" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B226" s="3" t="s">
+      <c r="B226" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="C226" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D226" s="1"/>
-      <c r="E226" s="1"/>
-      <c r="F226" s="1"/>
-      <c r="G226" s="1"/>
-      <c r="H226" s="1"/>
-      <c r="I226" s="1" t="s">
+      <c r="D226" s="7"/>
+      <c r="E226" s="7"/>
+      <c r="F226" s="7"/>
+      <c r="G226" s="7"/>
+      <c r="H226" s="7"/>
+      <c r="I226" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J226" s="7"/>
+      <c r="K226" s="7"/>
+      <c r="L226" s="7"/>
+    </row>
+    <row r="227" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B227" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D227" s="5"/>
+      <c r="E227" s="5"/>
+      <c r="F227" s="5"/>
+      <c r="G227" s="5"/>
+      <c r="H227" s="5"/>
+      <c r="I227" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J227" s="5"/>
+      <c r="K227" s="5"/>
+      <c r="L227" s="5"/>
+    </row>
+    <row r="228" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B228" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D228" s="5"/>
+      <c r="E228" s="5"/>
+      <c r="F228" s="5"/>
+      <c r="G228" s="5"/>
+      <c r="H228" s="5"/>
+      <c r="I228" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J228" s="5"/>
+      <c r="K228" s="5"/>
+      <c r="L228" s="5"/>
+    </row>
+    <row r="229" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B229" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D229" s="5"/>
+      <c r="E229" s="5"/>
+      <c r="F229" s="5"/>
+      <c r="G229" s="5"/>
+      <c r="H229" s="5"/>
+      <c r="I229" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J229" s="5"/>
+      <c r="K229" s="5"/>
+      <c r="L229" s="5"/>
+    </row>
+    <row r="230" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B230" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C230" s="5"/>
+      <c r="D230" s="5"/>
+      <c r="E230" s="5"/>
+      <c r="F230" s="5"/>
+      <c r="G230" s="5"/>
+      <c r="H230" s="5"/>
+      <c r="I230" s="5"/>
+      <c r="J230" s="5"/>
+      <c r="K230" s="5"/>
+      <c r="L230" s="5"/>
+    </row>
+    <row r="231" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B231" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C231" s="5"/>
+      <c r="D231" s="5"/>
+      <c r="E231" s="5"/>
+      <c r="F231" s="5"/>
+      <c r="G231" s="5"/>
+      <c r="H231" s="5"/>
+      <c r="I231" s="5"/>
+      <c r="J231" s="5"/>
+      <c r="K231" s="5"/>
+      <c r="L231" s="5"/>
+    </row>
+    <row r="234" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B234" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C234" s="8"/>
+      <c r="D234">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B235" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C235" s="8"/>
+      <c r="D235" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E235" s="7"/>
+    </row>
+    <row r="236" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B236" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C236" s="8"/>
+      <c r="D236" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="237" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B237" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C237" s="9"/>
+      <c r="D237" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="238" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B238" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C238" s="9"/>
+      <c r="D238" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E238" s="7"/>
+    </row>
+    <row r="239" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B239" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C239" s="9"/>
+      <c r="D239" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E239" s="7"/>
+      <c r="F239" s="2"/>
+    </row>
+    <row r="241" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B241" s="4"/>
+      <c r="C241" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D241" s="6"/>
+      <c r="E241" s="6"/>
+      <c r="F241" s="6"/>
+      <c r="G241" s="6"/>
+      <c r="H241" s="6"/>
+      <c r="I241" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J241" s="6"/>
+      <c r="K241" s="6"/>
+      <c r="L241" s="6"/>
+    </row>
+    <row r="242" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B242" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D242" s="7"/>
+      <c r="E242" s="7"/>
+      <c r="F242" s="7"/>
+      <c r="G242" s="7"/>
+      <c r="H242" s="7"/>
+      <c r="I242" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J242" s="7"/>
+      <c r="K242" s="7"/>
+      <c r="L242" s="7"/>
+    </row>
+    <row r="243" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B243" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D243" s="7"/>
+      <c r="E243" s="7"/>
+      <c r="F243" s="7"/>
+      <c r="G243" s="7"/>
+      <c r="H243" s="7"/>
+      <c r="I243" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J243" s="7"/>
+      <c r="K243" s="7"/>
+      <c r="L243" s="7"/>
+    </row>
+    <row r="244" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B244" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D244" s="5"/>
+      <c r="E244" s="5"/>
+      <c r="F244" s="5"/>
+      <c r="G244" s="5"/>
+      <c r="H244" s="5"/>
+      <c r="I244" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J244" s="5"/>
+      <c r="K244" s="5"/>
+      <c r="L244" s="5"/>
+    </row>
+    <row r="245" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B245" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C245" s="5"/>
+      <c r="D245" s="5"/>
+      <c r="E245" s="5"/>
+      <c r="F245" s="5"/>
+      <c r="G245" s="5"/>
+      <c r="H245" s="5"/>
+      <c r="I245" s="5"/>
+      <c r="J245" s="5"/>
+      <c r="K245" s="5"/>
+      <c r="L245" s="5"/>
+    </row>
+    <row r="246" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B246" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C246" s="5"/>
+      <c r="D246" s="5"/>
+      <c r="E246" s="5"/>
+      <c r="F246" s="5"/>
+      <c r="G246" s="5"/>
+      <c r="H246" s="5"/>
+      <c r="I246" s="5"/>
+      <c r="J246" s="5"/>
+      <c r="K246" s="5"/>
+      <c r="L246" s="5"/>
+    </row>
+    <row r="247" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B247" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C247" s="5"/>
+      <c r="D247" s="5"/>
+      <c r="E247" s="5"/>
+      <c r="F247" s="5"/>
+      <c r="G247" s="5"/>
+      <c r="H247" s="5"/>
+      <c r="I247" s="5"/>
+      <c r="J247" s="5"/>
+      <c r="K247" s="5"/>
+      <c r="L247" s="5"/>
+    </row>
+    <row r="248" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B248" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C248" s="5"/>
+      <c r="D248" s="5"/>
+      <c r="E248" s="5"/>
+      <c r="F248" s="5"/>
+      <c r="G248" s="5"/>
+      <c r="H248" s="5"/>
+      <c r="I248" s="5"/>
+      <c r="J248" s="5"/>
+      <c r="K248" s="5"/>
+      <c r="L248" s="5"/>
+    </row>
+    <row r="250" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B250" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C250" s="8"/>
+      <c r="D250">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="251" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B251" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C251" s="8"/>
+      <c r="D251" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E251" s="7"/>
+    </row>
+    <row r="252" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B252" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C252" s="8"/>
+      <c r="D252" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="253" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B253" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C253" s="9"/>
+      <c r="D253" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="254" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B254" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C254" s="9"/>
+      <c r="D254" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E254" s="7"/>
+    </row>
+    <row r="255" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B255" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C255" s="9"/>
+      <c r="D255" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E255" s="7"/>
+      <c r="F255" s="2"/>
+    </row>
+    <row r="257" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B257" s="4"/>
+      <c r="C257" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D257" s="6"/>
+      <c r="E257" s="6"/>
+      <c r="F257" s="6"/>
+      <c r="G257" s="6"/>
+      <c r="H257" s="6"/>
+      <c r="I257" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J257" s="6"/>
+      <c r="K257" s="6"/>
+      <c r="L257" s="6"/>
+    </row>
+    <row r="258" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B258" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D258" s="7"/>
+      <c r="E258" s="7"/>
+      <c r="F258" s="7"/>
+      <c r="G258" s="7"/>
+      <c r="H258" s="7"/>
+      <c r="I258" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J258" s="7"/>
+      <c r="K258" s="7"/>
+      <c r="L258" s="7"/>
+    </row>
+    <row r="259" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B259" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D259" s="7"/>
+      <c r="E259" s="7"/>
+      <c r="F259" s="7"/>
+      <c r="G259" s="7"/>
+      <c r="H259" s="7"/>
+      <c r="I259" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J259" s="7"/>
+      <c r="K259" s="7"/>
+      <c r="L259" s="7"/>
+    </row>
+    <row r="260" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B260" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D260" s="5"/>
+      <c r="E260" s="5"/>
+      <c r="F260" s="5"/>
+      <c r="G260" s="5"/>
+      <c r="H260" s="5"/>
+      <c r="I260" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J260" s="5"/>
+      <c r="K260" s="5"/>
+      <c r="L260" s="5"/>
+    </row>
+    <row r="261" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B261" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D261" s="5"/>
+      <c r="E261" s="5"/>
+      <c r="F261" s="5"/>
+      <c r="G261" s="5"/>
+      <c r="H261" s="5"/>
+      <c r="I261" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="J261" s="5"/>
+      <c r="K261" s="5"/>
+      <c r="L261" s="5"/>
+    </row>
+    <row r="262" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B262" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C262" s="5"/>
+      <c r="D262" s="5"/>
+      <c r="E262" s="5"/>
+      <c r="F262" s="5"/>
+      <c r="G262" s="5"/>
+      <c r="H262" s="5"/>
+      <c r="I262" s="5"/>
+      <c r="J262" s="5"/>
+      <c r="K262" s="5"/>
+      <c r="L262" s="5"/>
+    </row>
+    <row r="263" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B263" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C263" s="5"/>
+      <c r="D263" s="5"/>
+      <c r="E263" s="5"/>
+      <c r="F263" s="5"/>
+      <c r="G263" s="5"/>
+      <c r="H263" s="5"/>
+      <c r="I263" s="5"/>
+      <c r="J263" s="5"/>
+      <c r="K263" s="5"/>
+      <c r="L263" s="5"/>
+    </row>
+    <row r="264" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B264" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C264" s="5"/>
+      <c r="D264" s="5"/>
+      <c r="E264" s="5"/>
+      <c r="F264" s="5"/>
+      <c r="G264" s="5"/>
+      <c r="H264" s="5"/>
+      <c r="I264" s="5"/>
+      <c r="J264" s="5"/>
+      <c r="K264" s="5"/>
+      <c r="L264" s="5"/>
+    </row>
+    <row r="268" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B268" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C268" s="8"/>
+      <c r="D268">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="269" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B269" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C269" s="8"/>
+      <c r="D269" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E269" s="7"/>
+    </row>
+    <row r="270" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B270" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C270" s="8"/>
+      <c r="D270" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="271" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B271" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C271" s="9"/>
+      <c r="D271" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="272" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B272" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C272" s="9"/>
+      <c r="D272" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E272" s="7"/>
+    </row>
+    <row r="273" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B273" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C273" s="9"/>
+      <c r="D273" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E273" s="7"/>
+      <c r="F273" s="2"/>
+    </row>
+    <row r="275" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B275" s="4"/>
+      <c r="C275" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D275" s="6"/>
+      <c r="E275" s="6"/>
+      <c r="F275" s="6"/>
+      <c r="G275" s="6"/>
+      <c r="H275" s="6"/>
+      <c r="I275" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J275" s="6"/>
+      <c r="K275" s="6"/>
+      <c r="L275" s="6"/>
+    </row>
+    <row r="276" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B276" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D276" s="7"/>
+      <c r="E276" s="7"/>
+      <c r="F276" s="7"/>
+      <c r="G276" s="7"/>
+      <c r="H276" s="7"/>
+      <c r="I276" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J276" s="7"/>
+      <c r="K276" s="7"/>
+      <c r="L276" s="7"/>
+    </row>
+    <row r="277" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B277" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D277" s="7"/>
+      <c r="E277" s="7"/>
+      <c r="F277" s="7"/>
+      <c r="G277" s="7"/>
+      <c r="H277" s="7"/>
+      <c r="I277" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J277" s="7"/>
+      <c r="K277" s="7"/>
+      <c r="L277" s="7"/>
+    </row>
+    <row r="278" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B278" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D278" s="5"/>
+      <c r="E278" s="5"/>
+      <c r="F278" s="5"/>
+      <c r="G278" s="5"/>
+      <c r="H278" s="5"/>
+      <c r="I278" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J278" s="5"/>
+      <c r="K278" s="5"/>
+      <c r="L278" s="5"/>
+    </row>
+    <row r="279" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B279" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D279" s="5"/>
+      <c r="E279" s="5"/>
+      <c r="F279" s="5"/>
+      <c r="G279" s="5"/>
+      <c r="H279" s="5"/>
+      <c r="I279" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="J279" s="5"/>
+      <c r="K279" s="5"/>
+      <c r="L279" s="5"/>
+    </row>
+    <row r="280" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B280" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D280" s="5"/>
+      <c r="E280" s="5"/>
+      <c r="F280" s="5"/>
+      <c r="G280" s="5"/>
+      <c r="H280" s="5"/>
+      <c r="I280" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J280" s="5"/>
+      <c r="K280" s="5"/>
+      <c r="L280" s="5"/>
+    </row>
+    <row r="281" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B281" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C281" s="5"/>
+      <c r="D281" s="5"/>
+      <c r="E281" s="5"/>
+      <c r="F281" s="5"/>
+      <c r="G281" s="5"/>
+      <c r="H281" s="5"/>
+      <c r="I281" s="5"/>
+      <c r="J281" s="5"/>
+      <c r="K281" s="5"/>
+      <c r="L281" s="5"/>
+    </row>
+    <row r="282" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B282" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C282" s="5"/>
+      <c r="D282" s="5"/>
+      <c r="E282" s="5"/>
+      <c r="F282" s="5"/>
+      <c r="G282" s="5"/>
+      <c r="H282" s="5"/>
+      <c r="I282" s="5"/>
+      <c r="J282" s="5"/>
+      <c r="K282" s="5"/>
+      <c r="L282" s="5"/>
+    </row>
+    <row r="284" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I284">
+        <f ca="1">B285:L296+B29:L285</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B285" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C285" s="8"/>
+      <c r="D285">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="286" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B286" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C286" s="8"/>
+      <c r="D286" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E286" s="7"/>
+    </row>
+    <row r="287" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B287" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C287" s="8"/>
+      <c r="D287" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="288" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B288" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C288" s="9"/>
+      <c r="D288" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="289" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B289" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C289" s="9"/>
+      <c r="D289" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E289" s="7"/>
+    </row>
+    <row r="290" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B290" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C290" s="9"/>
+      <c r="D290" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E290" s="7"/>
+      <c r="F290" s="2"/>
+    </row>
+    <row r="292" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B292" s="4"/>
+      <c r="C292" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D292" s="6"/>
+      <c r="E292" s="6"/>
+      <c r="F292" s="6"/>
+      <c r="G292" s="6"/>
+      <c r="H292" s="6"/>
+      <c r="I292" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J292" s="6"/>
+      <c r="K292" s="6"/>
+      <c r="L292" s="6"/>
+    </row>
+    <row r="293" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B293" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C293" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D293" s="7"/>
+      <c r="E293" s="7"/>
+      <c r="F293" s="7"/>
+      <c r="G293" s="7"/>
+      <c r="H293" s="7"/>
+      <c r="I293" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J293" s="7"/>
+      <c r="K293" s="7"/>
+      <c r="L293" s="7"/>
+    </row>
+    <row r="294" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B294" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C294" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D294" s="7"/>
+      <c r="E294" s="7"/>
+      <c r="F294" s="7"/>
+      <c r="G294" s="7"/>
+      <c r="H294" s="7"/>
+      <c r="I294" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J294" s="7"/>
+      <c r="K294" s="7"/>
+      <c r="L294" s="7"/>
+    </row>
+    <row r="295" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B295" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D295" s="5"/>
+      <c r="E295" s="5"/>
+      <c r="F295" s="5"/>
+      <c r="G295" s="5"/>
+      <c r="H295" s="5"/>
+      <c r="I295" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J295" s="5"/>
+      <c r="K295" s="5"/>
+      <c r="L295" s="5"/>
+    </row>
+    <row r="296" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B296" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D296" s="5"/>
+      <c r="E296" s="5"/>
+      <c r="F296" s="5"/>
+      <c r="G296" s="5"/>
+      <c r="H296" s="5"/>
+      <c r="I296" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J296" s="5"/>
+      <c r="K296" s="5"/>
+      <c r="L296" s="5"/>
+    </row>
+    <row r="297" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B297" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D297" s="5"/>
+      <c r="E297" s="5"/>
+      <c r="F297" s="5"/>
+      <c r="G297" s="5"/>
+      <c r="H297" s="5"/>
+      <c r="I297" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J297" s="5"/>
+      <c r="K297" s="5"/>
+      <c r="L297" s="5"/>
+    </row>
+    <row r="298" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B298" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C298" s="5"/>
+      <c r="D298" s="5"/>
+      <c r="E298" s="5"/>
+      <c r="F298" s="5"/>
+      <c r="G298" s="5"/>
+      <c r="H298" s="5"/>
+      <c r="I298" s="5"/>
+      <c r="J298" s="5"/>
+      <c r="K298" s="5"/>
+      <c r="L298" s="5"/>
+    </row>
+    <row r="299" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B299" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C299" s="5"/>
+      <c r="D299" s="5"/>
+      <c r="E299" s="5"/>
+      <c r="F299" s="5"/>
+      <c r="G299" s="5"/>
+      <c r="H299" s="5"/>
+      <c r="I299" s="5"/>
+      <c r="J299" s="5"/>
+      <c r="K299" s="5"/>
+      <c r="L299" s="5"/>
+    </row>
+    <row r="301" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B301" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C301" s="8"/>
+      <c r="D301">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="302" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B302" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C302" s="8"/>
+      <c r="D302" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E302" s="7"/>
+    </row>
+    <row r="303" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B303" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C303" s="8"/>
+      <c r="D303" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="304" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B304" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C304" s="9"/>
+      <c r="D304" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="305" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B305" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C305" s="9"/>
+      <c r="D305" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E305" s="7"/>
+    </row>
+    <row r="306" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B306" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C306" s="9"/>
+      <c r="D306" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E306" s="7"/>
+      <c r="F306" s="2"/>
+    </row>
+    <row r="308" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B308" s="4"/>
+      <c r="C308" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D308" s="6"/>
+      <c r="E308" s="6"/>
+      <c r="F308" s="6"/>
+      <c r="G308" s="6"/>
+      <c r="H308" s="6"/>
+      <c r="I308" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J308" s="6"/>
+      <c r="K308" s="6"/>
+      <c r="L308" s="6"/>
+    </row>
+    <row r="309" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B309" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C309" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D309" s="7"/>
+      <c r="E309" s="7"/>
+      <c r="F309" s="7"/>
+      <c r="G309" s="7"/>
+      <c r="H309" s="7"/>
+      <c r="I309" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J309" s="7"/>
+      <c r="K309" s="7"/>
+      <c r="L309" s="7"/>
+    </row>
+    <row r="310" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B310" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D310" s="7"/>
+      <c r="E310" s="7"/>
+      <c r="F310" s="7"/>
+      <c r="G310" s="7"/>
+      <c r="H310" s="7"/>
+      <c r="I310" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J310" s="7"/>
+      <c r="K310" s="7"/>
+      <c r="L310" s="7"/>
+    </row>
+    <row r="311" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B311" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D311" s="5"/>
+      <c r="E311" s="5"/>
+      <c r="F311" s="5"/>
+      <c r="G311" s="5"/>
+      <c r="H311" s="5"/>
+      <c r="I311" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J311" s="5"/>
+      <c r="K311" s="5"/>
+      <c r="L311" s="5"/>
+    </row>
+    <row r="312" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B312" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D312" s="5"/>
+      <c r="E312" s="5"/>
+      <c r="F312" s="5"/>
+      <c r="G312" s="5"/>
+      <c r="H312" s="5"/>
+      <c r="I312" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J312" s="5"/>
+      <c r="K312" s="5"/>
+      <c r="L312" s="5"/>
+    </row>
+    <row r="313" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B313" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D313" s="5"/>
+      <c r="E313" s="5"/>
+      <c r="F313" s="5"/>
+      <c r="G313" s="5"/>
+      <c r="H313" s="5"/>
+      <c r="I313" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="J313" s="5"/>
+      <c r="K313" s="5"/>
+      <c r="L313" s="5"/>
+    </row>
+    <row r="314" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B314" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C314" s="5"/>
+      <c r="D314" s="5"/>
+      <c r="E314" s="5"/>
+      <c r="F314" s="5"/>
+      <c r="G314" s="5"/>
+      <c r="H314" s="5"/>
+      <c r="I314" s="5"/>
+      <c r="J314" s="5"/>
+      <c r="K314" s="5"/>
+      <c r="L314" s="5"/>
+    </row>
+    <row r="315" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B315" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C315" s="5"/>
+      <c r="D315" s="5"/>
+      <c r="E315" s="5"/>
+      <c r="F315" s="5"/>
+      <c r="G315" s="5"/>
+      <c r="H315" s="5"/>
+      <c r="I315" s="5"/>
+      <c r="J315" s="5"/>
+      <c r="K315" s="5"/>
+      <c r="L315" s="5"/>
+    </row>
+    <row r="318" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B318" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C318" s="8"/>
+      <c r="D318">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="319" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B319" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C319" s="8"/>
+      <c r="D319" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E319" s="7"/>
+    </row>
+    <row r="320" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B320" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C320" s="8"/>
+      <c r="D320" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="321" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B321" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C321" s="9"/>
+      <c r="D321" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="322" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B322" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C322" s="9"/>
+      <c r="D322" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E322" s="7"/>
+    </row>
+    <row r="323" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B323" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C323" s="9"/>
+      <c r="D323" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E323" s="7"/>
+      <c r="F323" s="2"/>
+    </row>
+    <row r="325" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B325" s="4"/>
+      <c r="C325" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D325" s="6"/>
+      <c r="E325" s="6"/>
+      <c r="F325" s="6"/>
+      <c r="G325" s="6"/>
+      <c r="H325" s="6"/>
+      <c r="I325" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J325" s="6"/>
+      <c r="K325" s="6"/>
+      <c r="L325" s="6"/>
+    </row>
+    <row r="326" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B326" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C326" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D326" s="7"/>
+      <c r="E326" s="7"/>
+      <c r="F326" s="7"/>
+      <c r="G326" s="7"/>
+      <c r="H326" s="7"/>
+      <c r="I326" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J326" s="7"/>
+      <c r="K326" s="7"/>
+      <c r="L326" s="7"/>
+    </row>
+    <row r="327" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B327" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C327" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D327" s="7"/>
+      <c r="E327" s="7"/>
+      <c r="F327" s="7"/>
+      <c r="G327" s="7"/>
+      <c r="H327" s="7"/>
+      <c r="I327" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J327" s="7"/>
+      <c r="K327" s="7"/>
+      <c r="L327" s="7"/>
+    </row>
+    <row r="328" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B328" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D328" s="5"/>
+      <c r="E328" s="5"/>
+      <c r="F328" s="5"/>
+      <c r="G328" s="5"/>
+      <c r="H328" s="5"/>
+      <c r="I328" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J328" s="5"/>
+      <c r="K328" s="5"/>
+      <c r="L328" s="5"/>
+    </row>
+    <row r="329" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B329" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C329" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D329" s="5"/>
+      <c r="E329" s="5"/>
+      <c r="F329" s="5"/>
+      <c r="G329" s="5"/>
+      <c r="H329" s="5"/>
+      <c r="I329" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J329" s="5"/>
+      <c r="K329" s="5"/>
+      <c r="L329" s="5"/>
+    </row>
+    <row r="330" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B330" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D330" s="5"/>
+      <c r="E330" s="5"/>
+      <c r="F330" s="5"/>
+      <c r="G330" s="5"/>
+      <c r="H330" s="5"/>
+      <c r="I330" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="J330" s="5"/>
+      <c r="K330" s="5"/>
+      <c r="L330" s="5"/>
+    </row>
+    <row r="331" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B331" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C331" s="5"/>
+      <c r="D331" s="5"/>
+      <c r="E331" s="5"/>
+      <c r="F331" s="5"/>
+      <c r="G331" s="5"/>
+      <c r="H331" s="5"/>
+      <c r="I331" s="5"/>
+      <c r="J331" s="5"/>
+      <c r="K331" s="5"/>
+      <c r="L331" s="5"/>
+    </row>
+    <row r="332" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B332" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C332" s="5"/>
+      <c r="D332" s="5"/>
+      <c r="E332" s="5"/>
+      <c r="F332" s="5"/>
+      <c r="G332" s="5"/>
+      <c r="H332" s="5"/>
+      <c r="I332" s="5"/>
+      <c r="J332" s="5"/>
+      <c r="K332" s="5"/>
+      <c r="L332" s="5"/>
+    </row>
+    <row r="335" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B335" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C335" s="8"/>
+      <c r="D335">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="336" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B336" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C336" s="8"/>
+      <c r="D336" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E336" s="7"/>
+    </row>
+    <row r="337" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B337" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C337" s="8"/>
+      <c r="D337" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="338" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B338" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C338" s="9"/>
+      <c r="D338" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="339" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B339" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C339" s="9"/>
+      <c r="D339" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E339" s="7"/>
+    </row>
+    <row r="340" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B340" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C340" s="9"/>
+      <c r="D340" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E340" s="7"/>
+      <c r="F340" s="2"/>
+    </row>
+    <row r="342" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B342" s="4"/>
+      <c r="C342" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D342" s="6"/>
+      <c r="E342" s="6"/>
+      <c r="F342" s="6"/>
+      <c r="G342" s="6"/>
+      <c r="H342" s="6"/>
+      <c r="I342" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J342" s="6"/>
+      <c r="K342" s="6"/>
+      <c r="L342" s="6"/>
+    </row>
+    <row r="343" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B343" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C343" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D343" s="7"/>
+      <c r="E343" s="7"/>
+      <c r="F343" s="7"/>
+      <c r="G343" s="7"/>
+      <c r="H343" s="7"/>
+      <c r="I343" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J343" s="7"/>
+      <c r="K343" s="7"/>
+      <c r="L343" s="7"/>
+    </row>
+    <row r="344" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B344" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C344" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D344" s="7"/>
+      <c r="E344" s="7"/>
+      <c r="F344" s="7"/>
+      <c r="G344" s="7"/>
+      <c r="H344" s="7"/>
+      <c r="I344" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J344" s="7"/>
+      <c r="K344" s="7"/>
+      <c r="L344" s="7"/>
+    </row>
+    <row r="345" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B345" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C345" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D345" s="5"/>
+      <c r="E345" s="5"/>
+      <c r="F345" s="5"/>
+      <c r="G345" s="5"/>
+      <c r="H345" s="5"/>
+      <c r="I345" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J345" s="5"/>
+      <c r="K345" s="5"/>
+      <c r="L345" s="5"/>
+    </row>
+    <row r="346" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B346" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C346" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D346" s="5"/>
+      <c r="E346" s="5"/>
+      <c r="F346" s="5"/>
+      <c r="G346" s="5"/>
+      <c r="H346" s="5"/>
+      <c r="I346" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J346" s="5"/>
+      <c r="K346" s="5"/>
+      <c r="L346" s="5"/>
+    </row>
+    <row r="347" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B347" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C347" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D347" s="5"/>
+      <c r="E347" s="5"/>
+      <c r="F347" s="5"/>
+      <c r="G347" s="5"/>
+      <c r="H347" s="5"/>
+      <c r="I347" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="J347" s="5"/>
+      <c r="K347" s="5"/>
+      <c r="L347" s="5"/>
+    </row>
+    <row r="348" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B348" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C348" s="5"/>
+      <c r="D348" s="5"/>
+      <c r="E348" s="5"/>
+      <c r="F348" s="5"/>
+      <c r="G348" s="5"/>
+      <c r="H348" s="5"/>
+      <c r="I348" s="5"/>
+      <c r="J348" s="5"/>
+      <c r="K348" s="5"/>
+      <c r="L348" s="5"/>
+    </row>
+    <row r="349" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B349" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C349" s="5"/>
+      <c r="D349" s="5"/>
+      <c r="E349" s="5"/>
+      <c r="F349" s="5"/>
+      <c r="G349" s="5"/>
+      <c r="H349" s="5"/>
+      <c r="I349" s="5"/>
+      <c r="J349" s="5"/>
+      <c r="K349" s="5"/>
+      <c r="L349" s="5"/>
+    </row>
+    <row r="352" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B352" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C352" s="8"/>
+      <c r="D352">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="353" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B353" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C353" s="8"/>
+      <c r="D353" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E353" s="7"/>
+    </row>
+    <row r="354" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B354" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C354" s="8"/>
+      <c r="D354" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="355" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B355" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C355" s="9"/>
+      <c r="D355" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="356" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B356" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C356" s="9"/>
+      <c r="D356" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E356" s="7"/>
+    </row>
+    <row r="357" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B357" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C357" s="9"/>
+      <c r="D357" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E357" s="7"/>
+      <c r="F357" s="2"/>
+    </row>
+    <row r="359" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B359" s="4"/>
+      <c r="C359" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D359" s="6"/>
+      <c r="E359" s="6"/>
+      <c r="F359" s="6"/>
+      <c r="G359" s="6"/>
+      <c r="H359" s="6"/>
+      <c r="I359" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J359" s="6"/>
+      <c r="K359" s="6"/>
+      <c r="L359" s="6"/>
+    </row>
+    <row r="360" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B360" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C360" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D360" s="7"/>
+      <c r="E360" s="7"/>
+      <c r="F360" s="7"/>
+      <c r="G360" s="7"/>
+      <c r="H360" s="7"/>
+      <c r="I360" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J360" s="7"/>
+      <c r="K360" s="7"/>
+      <c r="L360" s="7"/>
+    </row>
+    <row r="361" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B361" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C361" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D361" s="7"/>
+      <c r="E361" s="7"/>
+      <c r="F361" s="7"/>
+      <c r="G361" s="7"/>
+      <c r="H361" s="7"/>
+      <c r="I361" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J361" s="7"/>
+      <c r="K361" s="7"/>
+      <c r="L361" s="7"/>
+    </row>
+    <row r="362" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B362" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C362" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D362" s="5"/>
+      <c r="E362" s="5"/>
+      <c r="F362" s="5"/>
+      <c r="G362" s="5"/>
+      <c r="H362" s="5"/>
+      <c r="I362" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J362" s="5"/>
+      <c r="K362" s="5"/>
+      <c r="L362" s="5"/>
+    </row>
+    <row r="363" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B363" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C363" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D363" s="5"/>
+      <c r="E363" s="5"/>
+      <c r="F363" s="5"/>
+      <c r="G363" s="5"/>
+      <c r="H363" s="5"/>
+      <c r="I363" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J363" s="5"/>
+      <c r="K363" s="5"/>
+      <c r="L363" s="5"/>
+    </row>
+    <row r="364" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B364" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C364" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D364" s="5"/>
+      <c r="E364" s="5"/>
+      <c r="F364" s="5"/>
+      <c r="G364" s="5"/>
+      <c r="H364" s="5"/>
+      <c r="I364" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="J364" s="5"/>
+      <c r="K364" s="5"/>
+      <c r="L364" s="5"/>
+    </row>
+    <row r="365" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B365" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C365" s="5"/>
+      <c r="D365" s="5"/>
+      <c r="E365" s="5"/>
+      <c r="F365" s="5"/>
+      <c r="G365" s="5"/>
+      <c r="H365" s="5"/>
+      <c r="I365" s="5"/>
+      <c r="J365" s="5"/>
+      <c r="K365" s="5"/>
+      <c r="L365" s="5"/>
+    </row>
+    <row r="366" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B366" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C366" s="5"/>
+      <c r="D366" s="5"/>
+      <c r="E366" s="5"/>
+      <c r="F366" s="5"/>
+      <c r="G366" s="5"/>
+      <c r="H366" s="5"/>
+      <c r="I366" s="5"/>
+      <c r="J366" s="5"/>
+      <c r="K366" s="5"/>
+      <c r="L366" s="5"/>
+    </row>
+    <row r="369" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B369" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C369" s="8"/>
+      <c r="D369">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="370" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B370" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C370" s="8"/>
+      <c r="D370" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E370" s="7"/>
+    </row>
+    <row r="371" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B371" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C371" s="8"/>
+      <c r="D371" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="372" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B372" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C372" s="9"/>
+      <c r="D372" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="373" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B373" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C373" s="9"/>
+      <c r="D373" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E373" s="7"/>
+    </row>
+    <row r="374" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B374" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C374" s="9"/>
+      <c r="D374" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E374" s="7"/>
+      <c r="F374" s="2"/>
+    </row>
+    <row r="376" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B376" s="4"/>
+      <c r="C376" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D376" s="6"/>
+      <c r="E376" s="6"/>
+      <c r="F376" s="6"/>
+      <c r="G376" s="6"/>
+      <c r="H376" s="6"/>
+      <c r="I376" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J376" s="6"/>
+      <c r="K376" s="6"/>
+      <c r="L376" s="6"/>
+    </row>
+    <row r="377" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B377" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C377" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D377" s="7"/>
+      <c r="E377" s="7"/>
+      <c r="F377" s="7"/>
+      <c r="G377" s="7"/>
+      <c r="H377" s="7"/>
+      <c r="I377" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J377" s="7"/>
+      <c r="K377" s="7"/>
+      <c r="L377" s="7"/>
+    </row>
+    <row r="378" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B378" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C378" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D378" s="7"/>
+      <c r="E378" s="7"/>
+      <c r="F378" s="7"/>
+      <c r="G378" s="7"/>
+      <c r="H378" s="7"/>
+      <c r="I378" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J378" s="7"/>
+      <c r="K378" s="7"/>
+      <c r="L378" s="7"/>
+    </row>
+    <row r="379" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B379" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C379" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D379" s="5"/>
+      <c r="E379" s="5"/>
+      <c r="F379" s="5"/>
+      <c r="G379" s="5"/>
+      <c r="H379" s="5"/>
+      <c r="I379" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J379" s="5"/>
+      <c r="K379" s="5"/>
+      <c r="L379" s="5"/>
+    </row>
+    <row r="380" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B380" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C380" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D380" s="5"/>
+      <c r="E380" s="5"/>
+      <c r="F380" s="5"/>
+      <c r="G380" s="5"/>
+      <c r="H380" s="5"/>
+      <c r="I380" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J380" s="5"/>
+      <c r="K380" s="5"/>
+      <c r="L380" s="5"/>
+    </row>
+    <row r="381" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B381" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C381" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D381" s="5"/>
+      <c r="E381" s="5"/>
+      <c r="F381" s="5"/>
+      <c r="G381" s="5"/>
+      <c r="H381" s="5"/>
+      <c r="I381" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J381" s="5"/>
+      <c r="K381" s="5"/>
+      <c r="L381" s="5"/>
+    </row>
+    <row r="382" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B382" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C382" s="5"/>
+      <c r="D382" s="5"/>
+      <c r="E382" s="5"/>
+      <c r="F382" s="5"/>
+      <c r="G382" s="5"/>
+      <c r="H382" s="5"/>
+      <c r="I382" s="5"/>
+      <c r="J382" s="5"/>
+      <c r="K382" s="5"/>
+      <c r="L382" s="5"/>
+    </row>
+    <row r="383" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B383" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C383" s="5"/>
+      <c r="D383" s="5"/>
+      <c r="E383" s="5"/>
+      <c r="F383" s="5"/>
+      <c r="G383" s="5"/>
+      <c r="H383" s="5"/>
+      <c r="I383" s="5"/>
+      <c r="J383" s="5"/>
+      <c r="K383" s="5"/>
+      <c r="L383" s="5"/>
+    </row>
+    <row r="387" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B387" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C387" s="8"/>
+      <c r="D387">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="388" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B388" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C388" s="8"/>
+      <c r="D388" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E388" s="7"/>
+    </row>
+    <row r="389" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B389" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C389" s="8"/>
+      <c r="D389" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="390" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B390" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C390" s="9"/>
+      <c r="D390" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="391" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B391" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C391" s="9"/>
+      <c r="D391" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E391" s="7"/>
+    </row>
+    <row r="392" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B392" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C392" s="9"/>
+      <c r="D392" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E392" s="7"/>
+      <c r="F392" s="2"/>
+    </row>
+    <row r="394" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B394" s="4"/>
+      <c r="C394" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D394" s="6"/>
+      <c r="E394" s="6"/>
+      <c r="F394" s="6"/>
+      <c r="G394" s="6"/>
+      <c r="H394" s="6"/>
+      <c r="I394" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J394" s="6"/>
+      <c r="K394" s="6"/>
+      <c r="L394" s="6"/>
+    </row>
+    <row r="395" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B395" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C395" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D395" s="7"/>
+      <c r="E395" s="7"/>
+      <c r="F395" s="7"/>
+      <c r="G395" s="7"/>
+      <c r="H395" s="7"/>
+      <c r="I395" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J395" s="7"/>
+      <c r="K395" s="7"/>
+      <c r="L395" s="7"/>
+    </row>
+    <row r="396" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B396" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C396" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D396" s="7"/>
+      <c r="E396" s="7"/>
+      <c r="F396" s="7"/>
+      <c r="G396" s="7"/>
+      <c r="H396" s="7"/>
+      <c r="I396" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J396" s="7"/>
+      <c r="K396" s="7"/>
+      <c r="L396" s="7"/>
+    </row>
+    <row r="397" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B397" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C397" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D397" s="5"/>
+      <c r="E397" s="5"/>
+      <c r="F397" s="5"/>
+      <c r="G397" s="5"/>
+      <c r="H397" s="5"/>
+      <c r="I397" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J397" s="5"/>
+      <c r="K397" s="5"/>
+      <c r="L397" s="5"/>
+    </row>
+    <row r="398" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B398" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C398" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D398" s="5"/>
+      <c r="E398" s="5"/>
+      <c r="F398" s="5"/>
+      <c r="G398" s="5"/>
+      <c r="H398" s="5"/>
+      <c r="I398" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J398" s="5"/>
+      <c r="K398" s="5"/>
+      <c r="L398" s="5"/>
+    </row>
+    <row r="399" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B399" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C399" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D399" s="5"/>
+      <c r="E399" s="5"/>
+      <c r="F399" s="5"/>
+      <c r="G399" s="5"/>
+      <c r="H399" s="5"/>
+      <c r="I399" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="J399" s="5"/>
+      <c r="K399" s="5"/>
+      <c r="L399" s="5"/>
+    </row>
+    <row r="400" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B400" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C400" s="5"/>
+      <c r="D400" s="5"/>
+      <c r="E400" s="5"/>
+      <c r="F400" s="5"/>
+      <c r="G400" s="5"/>
+      <c r="H400" s="5"/>
+      <c r="I400" s="5"/>
+      <c r="J400" s="5"/>
+      <c r="K400" s="5"/>
+      <c r="L400" s="5"/>
+    </row>
+    <row r="401" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B401" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C401" s="5"/>
+      <c r="D401" s="5"/>
+      <c r="E401" s="5"/>
+      <c r="F401" s="5"/>
+      <c r="G401" s="5"/>
+      <c r="H401" s="5"/>
+      <c r="I401" s="5"/>
+      <c r="J401" s="5"/>
+      <c r="K401" s="5"/>
+      <c r="L401" s="5"/>
+    </row>
+    <row r="404" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B404" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C404" s="8"/>
+      <c r="D404">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="405" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B405" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C405" s="8"/>
+      <c r="D405" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E405" s="7"/>
+    </row>
+    <row r="406" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B406" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C406" s="8"/>
+      <c r="D406" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="407" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B407" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C407" s="9"/>
+      <c r="D407" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="408" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B408" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C408" s="9"/>
+      <c r="D408" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E408" s="7"/>
+    </row>
+    <row r="409" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B409" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C409" s="9"/>
+      <c r="D409" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E409" s="7"/>
+      <c r="F409" s="2"/>
+    </row>
+    <row r="411" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B411" s="4"/>
+      <c r="C411" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D411" s="6"/>
+      <c r="E411" s="6"/>
+      <c r="F411" s="6"/>
+      <c r="G411" s="6"/>
+      <c r="H411" s="6"/>
+      <c r="I411" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J411" s="6"/>
+      <c r="K411" s="6"/>
+      <c r="L411" s="6"/>
+    </row>
+    <row r="412" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B412" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C412" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D412" s="7"/>
+      <c r="E412" s="7"/>
+      <c r="F412" s="7"/>
+      <c r="G412" s="7"/>
+      <c r="H412" s="7"/>
+      <c r="I412" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J412" s="7"/>
+      <c r="K412" s="7"/>
+      <c r="L412" s="7"/>
+    </row>
+    <row r="413" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B413" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C413" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D413" s="7"/>
+      <c r="E413" s="7"/>
+      <c r="F413" s="7"/>
+      <c r="G413" s="7"/>
+      <c r="H413" s="7"/>
+      <c r="I413" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J413" s="7"/>
+      <c r="K413" s="7"/>
+      <c r="L413" s="7"/>
+    </row>
+    <row r="414" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B414" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C414" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D414" s="5"/>
+      <c r="E414" s="5"/>
+      <c r="F414" s="5"/>
+      <c r="G414" s="5"/>
+      <c r="H414" s="5"/>
+      <c r="I414" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J414" s="5"/>
+      <c r="K414" s="5"/>
+      <c r="L414" s="5"/>
+    </row>
+    <row r="415" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B415" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C415" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D415" s="5"/>
+      <c r="E415" s="5"/>
+      <c r="F415" s="5"/>
+      <c r="G415" s="5"/>
+      <c r="H415" s="5"/>
+      <c r="I415" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J415" s="5"/>
+      <c r="K415" s="5"/>
+      <c r="L415" s="5"/>
+    </row>
+    <row r="416" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B416" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C416" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D416" s="5"/>
+      <c r="E416" s="5"/>
+      <c r="F416" s="5"/>
+      <c r="G416" s="5"/>
+      <c r="H416" s="5"/>
+      <c r="I416" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="J416" s="5"/>
+      <c r="K416" s="5"/>
+      <c r="L416" s="5"/>
+    </row>
+    <row r="417" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B417" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C417" s="5"/>
+      <c r="D417" s="5"/>
+      <c r="E417" s="5"/>
+      <c r="F417" s="5"/>
+      <c r="G417" s="5"/>
+      <c r="H417" s="5"/>
+      <c r="I417" s="5"/>
+      <c r="J417" s="5"/>
+      <c r="K417" s="5"/>
+      <c r="L417" s="5"/>
+    </row>
+    <row r="418" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B418" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C418" s="5"/>
+      <c r="D418" s="5"/>
+      <c r="E418" s="5"/>
+      <c r="F418" s="5"/>
+      <c r="G418" s="5"/>
+      <c r="H418" s="5"/>
+      <c r="I418" s="5"/>
+      <c r="J418" s="5"/>
+      <c r="K418" s="5"/>
+      <c r="L418" s="5"/>
+    </row>
+    <row r="421" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B421" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C421" s="8"/>
+      <c r="D421">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="422" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B422" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C422" s="8"/>
+      <c r="D422" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E422" s="7"/>
+    </row>
+    <row r="423" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B423" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C423" s="8"/>
+      <c r="D423" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="424" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B424" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C424" s="9"/>
+      <c r="D424" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="425" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B425" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C425" s="9"/>
+      <c r="D425" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E425" s="7"/>
+    </row>
+    <row r="426" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B426" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C426" s="9"/>
+      <c r="D426" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E426" s="7"/>
+      <c r="F426" s="2"/>
+    </row>
+    <row r="428" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B428" s="4"/>
+      <c r="C428" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D428" s="6"/>
+      <c r="E428" s="6"/>
+      <c r="F428" s="6"/>
+      <c r="G428" s="6"/>
+      <c r="H428" s="6"/>
+      <c r="I428" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J428" s="6"/>
+      <c r="K428" s="6"/>
+      <c r="L428" s="6"/>
+    </row>
+    <row r="429" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B429" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C429" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D429" s="7"/>
+      <c r="E429" s="7"/>
+      <c r="F429" s="7"/>
+      <c r="G429" s="7"/>
+      <c r="H429" s="7"/>
+      <c r="I429" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J429" s="7"/>
+      <c r="K429" s="7"/>
+      <c r="L429" s="7"/>
+    </row>
+    <row r="430" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B430" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C430" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D430" s="7"/>
+      <c r="E430" s="7"/>
+      <c r="F430" s="7"/>
+      <c r="G430" s="7"/>
+      <c r="H430" s="7"/>
+      <c r="I430" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J430" s="7"/>
+      <c r="K430" s="7"/>
+      <c r="L430" s="7"/>
+    </row>
+    <row r="431" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B431" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C431" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D431" s="5"/>
+      <c r="E431" s="5"/>
+      <c r="F431" s="5"/>
+      <c r="G431" s="5"/>
+      <c r="H431" s="5"/>
+      <c r="I431" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J431" s="5"/>
+      <c r="K431" s="5"/>
+      <c r="L431" s="5"/>
+    </row>
+    <row r="432" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B432" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C432" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D432" s="5"/>
+      <c r="E432" s="5"/>
+      <c r="F432" s="5"/>
+      <c r="G432" s="5"/>
+      <c r="H432" s="5"/>
+      <c r="I432" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J432" s="5"/>
+      <c r="K432" s="5"/>
+      <c r="L432" s="5"/>
+    </row>
+    <row r="433" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B433" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C433" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D433" s="5"/>
+      <c r="E433" s="5"/>
+      <c r="F433" s="5"/>
+      <c r="G433" s="5"/>
+      <c r="H433" s="5"/>
+      <c r="I433" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="J433" s="5"/>
+      <c r="K433" s="5"/>
+      <c r="L433" s="5"/>
+    </row>
+    <row r="434" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B434" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C434" s="5"/>
+      <c r="D434" s="5"/>
+      <c r="E434" s="5"/>
+      <c r="F434" s="5"/>
+      <c r="G434" s="5"/>
+      <c r="H434" s="5"/>
+      <c r="I434" s="5"/>
+      <c r="J434" s="5"/>
+      <c r="K434" s="5"/>
+      <c r="L434" s="5"/>
+    </row>
+    <row r="435" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B435" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C435" s="5"/>
+      <c r="D435" s="5"/>
+      <c r="E435" s="5"/>
+      <c r="F435" s="5"/>
+      <c r="G435" s="5"/>
+      <c r="H435" s="5"/>
+      <c r="I435" s="5"/>
+      <c r="J435" s="5"/>
+      <c r="K435" s="5"/>
+      <c r="L435" s="5"/>
+    </row>
+    <row r="438" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B438" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C438" s="8"/>
+      <c r="D438">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="439" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B439" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C439" s="8"/>
+      <c r="D439" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E439" s="7"/>
+    </row>
+    <row r="440" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B440" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C440" s="8"/>
+      <c r="D440" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="441" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B441" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C441" s="9"/>
+      <c r="D441" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="442" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B442" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C442" s="9"/>
+      <c r="D442" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E442" s="7"/>
+    </row>
+    <row r="443" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B443" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C443" s="9"/>
+      <c r="D443" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E443" s="7"/>
+      <c r="F443" s="2"/>
+    </row>
+    <row r="445" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B445" s="4"/>
+      <c r="C445" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D445" s="6"/>
+      <c r="E445" s="6"/>
+      <c r="F445" s="6"/>
+      <c r="G445" s="6"/>
+      <c r="H445" s="6"/>
+      <c r="I445" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J445" s="6"/>
+      <c r="K445" s="6"/>
+      <c r="L445" s="6"/>
+    </row>
+    <row r="446" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B446" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C446" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D446" s="7"/>
+      <c r="E446" s="7"/>
+      <c r="F446" s="7"/>
+      <c r="G446" s="7"/>
+      <c r="H446" s="7"/>
+      <c r="I446" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J446" s="7"/>
+      <c r="K446" s="7"/>
+      <c r="L446" s="7"/>
+    </row>
+    <row r="447" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B447" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C447" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D447" s="7"/>
+      <c r="E447" s="7"/>
+      <c r="F447" s="7"/>
+      <c r="G447" s="7"/>
+      <c r="H447" s="7"/>
+      <c r="I447" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J447" s="7"/>
+      <c r="K447" s="7"/>
+      <c r="L447" s="7"/>
+    </row>
+    <row r="448" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B448" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C448" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D448" s="5"/>
+      <c r="E448" s="5"/>
+      <c r="F448" s="5"/>
+      <c r="G448" s="5"/>
+      <c r="H448" s="5"/>
+      <c r="I448" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J448" s="5"/>
+      <c r="K448" s="5"/>
+      <c r="L448" s="5"/>
+    </row>
+    <row r="449" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B449" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C449" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D449" s="5"/>
+      <c r="E449" s="5"/>
+      <c r="F449" s="5"/>
+      <c r="G449" s="5"/>
+      <c r="H449" s="5"/>
+      <c r="I449" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J449" s="5"/>
+      <c r="K449" s="5"/>
+      <c r="L449" s="5"/>
+    </row>
+    <row r="450" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B450" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C450" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D450" s="5"/>
+      <c r="E450" s="5"/>
+      <c r="F450" s="5"/>
+      <c r="G450" s="5"/>
+      <c r="H450" s="5"/>
+      <c r="I450" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J450" s="5"/>
+      <c r="K450" s="5"/>
+      <c r="L450" s="5"/>
+    </row>
+    <row r="451" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B451" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C451" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D451" s="5"/>
+      <c r="E451" s="5"/>
+      <c r="F451" s="5"/>
+      <c r="G451" s="5"/>
+      <c r="H451" s="5"/>
+      <c r="I451" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="J451" s="5"/>
+      <c r="K451" s="5"/>
+      <c r="L451" s="5"/>
+    </row>
+    <row r="452" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B452" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C452" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D452" s="5"/>
+      <c r="E452" s="5"/>
+      <c r="F452" s="5"/>
+      <c r="G452" s="5"/>
+      <c r="H452" s="5"/>
+      <c r="I452" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="J452" s="5"/>
+      <c r="K452" s="5"/>
+      <c r="L452" s="5"/>
+    </row>
+    <row r="456" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B456" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C456" s="8"/>
+      <c r="D456">
         <v>25</v>
       </c>
-      <c r="J226" s="1"/>
-      <c r="K226" s="1"/>
-      <c r="L226" s="1"/>
-    </row>
-    <row r="227" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B227" s="3" t="s">
+    </row>
+    <row r="457" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B457" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C457" s="8"/>
+      <c r="D457" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E457" s="7"/>
+    </row>
+    <row r="458" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B458" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C458" s="8"/>
+      <c r="D458" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="459" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B459" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C459" s="9"/>
+      <c r="D459" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="460" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B460" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C460" s="9"/>
+      <c r="D460" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E460" s="7"/>
+    </row>
+    <row r="461" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B461" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C461" s="9"/>
+      <c r="D461" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E461" s="7"/>
+      <c r="F461" s="2"/>
+    </row>
+    <row r="463" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B463" s="4"/>
+      <c r="C463" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D463" s="6"/>
+      <c r="E463" s="6"/>
+      <c r="F463" s="6"/>
+      <c r="G463" s="6"/>
+      <c r="H463" s="6"/>
+      <c r="I463" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J463" s="6"/>
+      <c r="K463" s="6"/>
+      <c r="L463" s="6"/>
+    </row>
+    <row r="464" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B464" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C464" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D464" s="7"/>
+      <c r="E464" s="7"/>
+      <c r="F464" s="7"/>
+      <c r="G464" s="7"/>
+      <c r="H464" s="7"/>
+      <c r="I464" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J464" s="7"/>
+      <c r="K464" s="7"/>
+      <c r="L464" s="7"/>
+    </row>
+    <row r="465" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B465" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C465" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D465" s="7"/>
+      <c r="E465" s="7"/>
+      <c r="F465" s="7"/>
+      <c r="G465" s="7"/>
+      <c r="H465" s="7"/>
+      <c r="I465" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J465" s="7"/>
+      <c r="K465" s="7"/>
+      <c r="L465" s="7"/>
+    </row>
+    <row r="466" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B466" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="2"/>
-      <c r="G227" s="2"/>
-      <c r="H227" s="2"/>
-      <c r="I227" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J227" s="2"/>
-      <c r="K227" s="2"/>
-      <c r="L227" s="2"/>
-    </row>
-    <row r="228" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B228" s="3" t="s">
+      <c r="C466" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D466" s="5"/>
+      <c r="E466" s="5"/>
+      <c r="F466" s="5"/>
+      <c r="G466" s="5"/>
+      <c r="H466" s="5"/>
+      <c r="I466" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J466" s="5"/>
+      <c r="K466" s="5"/>
+      <c r="L466" s="5"/>
+    </row>
+    <row r="467" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B467" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D228" s="2"/>
-      <c r="E228" s="2"/>
-      <c r="F228" s="2"/>
-      <c r="G228" s="2"/>
-      <c r="H228" s="2"/>
-      <c r="I228" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J228" s="2"/>
-      <c r="K228" s="2"/>
-      <c r="L228" s="2"/>
-    </row>
-    <row r="229" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B229" s="3" t="s">
+      <c r="C467" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D467" s="5"/>
+      <c r="E467" s="5"/>
+      <c r="F467" s="5"/>
+      <c r="G467" s="5"/>
+      <c r="H467" s="5"/>
+      <c r="I467" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J467" s="5"/>
+      <c r="K467" s="5"/>
+      <c r="L467" s="5"/>
+    </row>
+    <row r="468" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B468" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D229" s="2"/>
-      <c r="E229" s="2"/>
-      <c r="F229" s="2"/>
-      <c r="G229" s="2"/>
-      <c r="H229" s="2"/>
-      <c r="I229" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J229" s="2"/>
-      <c r="K229" s="2"/>
-      <c r="L229" s="2"/>
-    </row>
-    <row r="230" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B230" s="3" t="s">
+      <c r="C468" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D468" s="5"/>
+      <c r="E468" s="5"/>
+      <c r="F468" s="5"/>
+      <c r="G468" s="5"/>
+      <c r="H468" s="5"/>
+      <c r="I468" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J468" s="5"/>
+      <c r="K468" s="5"/>
+      <c r="L468" s="5"/>
+    </row>
+    <row r="469" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B469" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C230" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D230" s="2"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="2"/>
-      <c r="G230" s="2"/>
-      <c r="H230" s="2"/>
-      <c r="I230" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J230" s="2"/>
-      <c r="K230" s="2"/>
-      <c r="L230" s="2"/>
-    </row>
-    <row r="231" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B231" s="3" t="s">
+      <c r="C469" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D469" s="5"/>
+      <c r="E469" s="5"/>
+      <c r="F469" s="5"/>
+      <c r="G469" s="5"/>
+      <c r="H469" s="5"/>
+      <c r="I469" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="J469" s="5"/>
+      <c r="K469" s="5"/>
+      <c r="L469" s="5"/>
+    </row>
+    <row r="470" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B470" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
-      <c r="E231" s="2"/>
-      <c r="F231" s="2"/>
-      <c r="G231" s="2"/>
-      <c r="H231" s="2"/>
-      <c r="I231" s="2"/>
-      <c r="J231" s="2"/>
-      <c r="K231" s="2"/>
-      <c r="L231" s="2"/>
+      <c r="C470" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D470" s="5"/>
+      <c r="E470" s="5"/>
+      <c r="F470" s="5"/>
+      <c r="G470" s="5"/>
+      <c r="H470" s="5"/>
+      <c r="I470" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="J470" s="5"/>
+      <c r="K470" s="5"/>
+      <c r="L470" s="5"/>
+    </row>
+    <row r="474" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B474" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C474" s="8"/>
+      <c r="D474">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="475" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B475" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C475" s="8"/>
+      <c r="D475" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E475" s="7"/>
+    </row>
+    <row r="476" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B476" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C476" s="8"/>
+      <c r="D476" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="477" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B477" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C477" s="9"/>
+      <c r="D477" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="478" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B478" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C478" s="9"/>
+      <c r="D478" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E478" s="7"/>
+    </row>
+    <row r="479" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B479" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C479" s="9"/>
+      <c r="D479" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E479" s="7"/>
+      <c r="F479" s="2"/>
+    </row>
+    <row r="481" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B481" s="4"/>
+      <c r="C481" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D481" s="6"/>
+      <c r="E481" s="6"/>
+      <c r="F481" s="6"/>
+      <c r="G481" s="6"/>
+      <c r="H481" s="6"/>
+      <c r="I481" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J481" s="6"/>
+      <c r="K481" s="6"/>
+      <c r="L481" s="6"/>
+    </row>
+    <row r="482" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B482" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C482" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D482" s="7"/>
+      <c r="E482" s="7"/>
+      <c r="F482" s="7"/>
+      <c r="G482" s="7"/>
+      <c r="H482" s="7"/>
+      <c r="I482" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J482" s="7"/>
+      <c r="K482" s="7"/>
+      <c r="L482" s="7"/>
+    </row>
+    <row r="483" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B483" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C483" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D483" s="7"/>
+      <c r="E483" s="7"/>
+      <c r="F483" s="7"/>
+      <c r="G483" s="7"/>
+      <c r="H483" s="7"/>
+      <c r="I483" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J483" s="7"/>
+      <c r="K483" s="7"/>
+      <c r="L483" s="7"/>
+    </row>
+    <row r="484" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B484" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C484" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D484" s="5"/>
+      <c r="E484" s="5"/>
+      <c r="F484" s="5"/>
+      <c r="G484" s="5"/>
+      <c r="H484" s="5"/>
+      <c r="I484" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J484" s="5"/>
+      <c r="K484" s="5"/>
+      <c r="L484" s="5"/>
+    </row>
+    <row r="485" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B485" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C485" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D485" s="5"/>
+      <c r="E485" s="5"/>
+      <c r="F485" s="5"/>
+      <c r="G485" s="5"/>
+      <c r="H485" s="5"/>
+      <c r="I485" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J485" s="5"/>
+      <c r="K485" s="5"/>
+      <c r="L485" s="5"/>
+    </row>
+    <row r="486" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B486" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C486" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D486" s="5"/>
+      <c r="E486" s="5"/>
+      <c r="F486" s="5"/>
+      <c r="G486" s="5"/>
+      <c r="H486" s="5"/>
+      <c r="I486" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J486" s="5"/>
+      <c r="K486" s="5"/>
+      <c r="L486" s="5"/>
+    </row>
+    <row r="487" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B487" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C487" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D487" s="5"/>
+      <c r="E487" s="5"/>
+      <c r="F487" s="5"/>
+      <c r="G487" s="5"/>
+      <c r="H487" s="5"/>
+      <c r="I487" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="J487" s="5"/>
+      <c r="K487" s="5"/>
+      <c r="L487" s="5"/>
+    </row>
+    <row r="488" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B488" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C488" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D488" s="5"/>
+      <c r="E488" s="5"/>
+      <c r="F488" s="5"/>
+      <c r="G488" s="5"/>
+      <c r="H488" s="5"/>
+      <c r="I488" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="J488" s="5"/>
+      <c r="K488" s="5"/>
+      <c r="L488" s="5"/>
+    </row>
+    <row r="491" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B491" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C491" s="8"/>
+      <c r="D491">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="492" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B492" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C492" s="8"/>
+      <c r="D492" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E492" s="7"/>
+    </row>
+    <row r="493" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B493" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C493" s="8"/>
+      <c r="D493" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="494" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B494" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C494" s="9"/>
+      <c r="D494" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="495" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B495" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C495" s="9"/>
+      <c r="D495" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E495" s="7"/>
+    </row>
+    <row r="496" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B496" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C496" s="9"/>
+      <c r="D496" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E496" s="7"/>
+      <c r="F496" s="2"/>
+    </row>
+    <row r="498" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B498" s="4"/>
+      <c r="C498" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D498" s="6"/>
+      <c r="E498" s="6"/>
+      <c r="F498" s="6"/>
+      <c r="G498" s="6"/>
+      <c r="H498" s="6"/>
+      <c r="I498" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J498" s="6"/>
+      <c r="K498" s="6"/>
+      <c r="L498" s="6"/>
+    </row>
+    <row r="499" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B499" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C499" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D499" s="7"/>
+      <c r="E499" s="7"/>
+      <c r="F499" s="7"/>
+      <c r="G499" s="7"/>
+      <c r="H499" s="7"/>
+      <c r="I499" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J499" s="7"/>
+      <c r="K499" s="7"/>
+      <c r="L499" s="7"/>
+    </row>
+    <row r="500" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B500" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C500" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D500" s="7"/>
+      <c r="E500" s="7"/>
+      <c r="F500" s="7"/>
+      <c r="G500" s="7"/>
+      <c r="H500" s="7"/>
+      <c r="I500" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J500" s="7"/>
+      <c r="K500" s="7"/>
+      <c r="L500" s="7"/>
+    </row>
+    <row r="501" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B501" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C501" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D501" s="5"/>
+      <c r="E501" s="5"/>
+      <c r="F501" s="5"/>
+      <c r="G501" s="5"/>
+      <c r="H501" s="5"/>
+      <c r="I501" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J501" s="5"/>
+      <c r="K501" s="5"/>
+      <c r="L501" s="5"/>
+    </row>
+    <row r="502" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B502" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C502" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D502" s="5"/>
+      <c r="E502" s="5"/>
+      <c r="F502" s="5"/>
+      <c r="G502" s="5"/>
+      <c r="H502" s="5"/>
+      <c r="I502" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J502" s="5"/>
+      <c r="K502" s="5"/>
+      <c r="L502" s="5"/>
+    </row>
+    <row r="503" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B503" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C503" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D503" s="5"/>
+      <c r="E503" s="5"/>
+      <c r="F503" s="5"/>
+      <c r="G503" s="5"/>
+      <c r="H503" s="5"/>
+      <c r="I503" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J503" s="5"/>
+      <c r="K503" s="5"/>
+      <c r="L503" s="5"/>
+    </row>
+    <row r="504" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B504" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C504" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D504" s="5"/>
+      <c r="E504" s="5"/>
+      <c r="F504" s="5"/>
+      <c r="G504" s="5"/>
+      <c r="H504" s="5"/>
+      <c r="I504" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="J504" s="5"/>
+      <c r="K504" s="5"/>
+      <c r="L504" s="5"/>
+    </row>
+    <row r="505" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B505" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C505" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D505" s="5"/>
+      <c r="E505" s="5"/>
+      <c r="F505" s="5"/>
+      <c r="G505" s="5"/>
+      <c r="H505" s="5"/>
+      <c r="I505" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J505" s="5"/>
+      <c r="K505" s="5"/>
+      <c r="L505" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="313">
-    <mergeCell ref="C230:H230"/>
-    <mergeCell ref="I230:L230"/>
-    <mergeCell ref="C231:H231"/>
-    <mergeCell ref="I231:L231"/>
-    <mergeCell ref="C227:H227"/>
-    <mergeCell ref="I227:L227"/>
-    <mergeCell ref="C228:H228"/>
-    <mergeCell ref="I228:L228"/>
-    <mergeCell ref="C229:H229"/>
-    <mergeCell ref="I229:L229"/>
-    <mergeCell ref="C224:H224"/>
-    <mergeCell ref="I224:L224"/>
-    <mergeCell ref="C225:H225"/>
-    <mergeCell ref="I225:L225"/>
-    <mergeCell ref="C226:H226"/>
-    <mergeCell ref="I226:L226"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="B221:C221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="B212:G212"/>
-    <mergeCell ref="H212:K212"/>
-    <mergeCell ref="B213:G213"/>
-    <mergeCell ref="H213:K213"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="D218:E218"/>
-    <mergeCell ref="B209:G209"/>
-    <mergeCell ref="H209:K209"/>
-    <mergeCell ref="B210:G210"/>
-    <mergeCell ref="H210:K210"/>
-    <mergeCell ref="B211:G211"/>
-    <mergeCell ref="H211:K211"/>
-    <mergeCell ref="B206:G206"/>
-    <mergeCell ref="H206:K206"/>
-    <mergeCell ref="B207:G207"/>
-    <mergeCell ref="H207:K207"/>
-    <mergeCell ref="B208:G208"/>
-    <mergeCell ref="H208:K208"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="C204:D204"/>
-    <mergeCell ref="B195:G195"/>
-    <mergeCell ref="H195:K195"/>
-    <mergeCell ref="B196:G196"/>
-    <mergeCell ref="H196:K196"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="C200:D200"/>
-    <mergeCell ref="B192:G192"/>
-    <mergeCell ref="H192:K192"/>
-    <mergeCell ref="B193:G193"/>
-    <mergeCell ref="H193:K193"/>
-    <mergeCell ref="B194:G194"/>
-    <mergeCell ref="H194:K194"/>
-    <mergeCell ref="B189:G189"/>
-    <mergeCell ref="H189:K189"/>
-    <mergeCell ref="B190:G190"/>
-    <mergeCell ref="H190:K190"/>
-    <mergeCell ref="B191:G191"/>
-    <mergeCell ref="H191:K191"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="C186:D186"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="H175:K175"/>
-    <mergeCell ref="B176:G176"/>
-    <mergeCell ref="H176:K176"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="C183:D183"/>
-    <mergeCell ref="B172:G172"/>
-    <mergeCell ref="H172:K172"/>
-    <mergeCell ref="B173:G173"/>
-    <mergeCell ref="H173:K173"/>
-    <mergeCell ref="B174:G174"/>
-    <mergeCell ref="H174:K174"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="B170:G170"/>
-    <mergeCell ref="H170:K170"/>
-    <mergeCell ref="B171:G171"/>
-    <mergeCell ref="H171:K171"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="B156:G156"/>
-    <mergeCell ref="H156:K156"/>
-    <mergeCell ref="B157:G157"/>
-    <mergeCell ref="H157:K157"/>
-    <mergeCell ref="B158:G158"/>
-    <mergeCell ref="H158:K158"/>
-    <mergeCell ref="B153:G153"/>
-    <mergeCell ref="H153:K153"/>
-    <mergeCell ref="B154:G154"/>
-    <mergeCell ref="H154:K154"/>
-    <mergeCell ref="B155:G155"/>
-    <mergeCell ref="H155:K155"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="B151:G151"/>
-    <mergeCell ref="H151:K151"/>
-    <mergeCell ref="B152:G152"/>
-    <mergeCell ref="H152:K152"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="B138:G138"/>
-    <mergeCell ref="H138:K138"/>
-    <mergeCell ref="B139:G139"/>
-    <mergeCell ref="H139:K139"/>
-    <mergeCell ref="B134:G134"/>
-    <mergeCell ref="H134:K134"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="H135:K135"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="H137:K137"/>
-    <mergeCell ref="B136:G136"/>
-    <mergeCell ref="H136:K136"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="B132:G132"/>
-    <mergeCell ref="H132:K132"/>
-    <mergeCell ref="B133:G133"/>
-    <mergeCell ref="H133:K133"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="H119:K119"/>
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="H120:K120"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="H121:K121"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="H116:K116"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="H117:K117"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="H118:K118"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="H114:K114"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="H115:K115"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="B101:G101"/>
-    <mergeCell ref="H101:K101"/>
-    <mergeCell ref="B102:G102"/>
-    <mergeCell ref="H102:K102"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="H103:K103"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="H98:K98"/>
-    <mergeCell ref="B99:G99"/>
-    <mergeCell ref="H99:K99"/>
-    <mergeCell ref="B100:G100"/>
-    <mergeCell ref="H100:K100"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="H96:K96"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="H97:K97"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="H82:K82"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="H76:K76"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="H77:K77"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="H83:K83"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="H75:K75"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="H59:K59"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
+  <mergeCells count="713">
+    <mergeCell ref="C503:H503"/>
+    <mergeCell ref="I503:L503"/>
+    <mergeCell ref="C504:H504"/>
+    <mergeCell ref="I504:L504"/>
+    <mergeCell ref="C505:H505"/>
+    <mergeCell ref="I505:L505"/>
+    <mergeCell ref="I498:L498"/>
+    <mergeCell ref="C499:H499"/>
+    <mergeCell ref="I499:L499"/>
+    <mergeCell ref="C500:H500"/>
+    <mergeCell ref="I500:L500"/>
+    <mergeCell ref="C501:H501"/>
+    <mergeCell ref="I501:L501"/>
+    <mergeCell ref="C502:H502"/>
+    <mergeCell ref="I502:L502"/>
+    <mergeCell ref="B492:C492"/>
+    <mergeCell ref="D492:E492"/>
+    <mergeCell ref="B493:C493"/>
+    <mergeCell ref="B494:C494"/>
+    <mergeCell ref="B495:C495"/>
+    <mergeCell ref="D495:E495"/>
+    <mergeCell ref="B496:C496"/>
+    <mergeCell ref="D496:E496"/>
+    <mergeCell ref="C498:H498"/>
+    <mergeCell ref="C485:H485"/>
+    <mergeCell ref="I485:L485"/>
+    <mergeCell ref="C486:H486"/>
+    <mergeCell ref="I486:L486"/>
+    <mergeCell ref="C487:H487"/>
+    <mergeCell ref="I487:L487"/>
+    <mergeCell ref="C488:H488"/>
+    <mergeCell ref="I488:L488"/>
+    <mergeCell ref="B491:C491"/>
+    <mergeCell ref="B479:C479"/>
+    <mergeCell ref="D479:E479"/>
+    <mergeCell ref="C481:H481"/>
+    <mergeCell ref="I481:L481"/>
+    <mergeCell ref="C482:H482"/>
+    <mergeCell ref="I482:L482"/>
+    <mergeCell ref="C483:H483"/>
+    <mergeCell ref="I483:L483"/>
+    <mergeCell ref="C484:H484"/>
+    <mergeCell ref="I484:L484"/>
+    <mergeCell ref="C470:H470"/>
+    <mergeCell ref="I470:L470"/>
+    <mergeCell ref="B474:C474"/>
+    <mergeCell ref="B475:C475"/>
+    <mergeCell ref="D475:E475"/>
+    <mergeCell ref="B476:C476"/>
+    <mergeCell ref="B477:C477"/>
+    <mergeCell ref="B478:C478"/>
+    <mergeCell ref="D478:E478"/>
+    <mergeCell ref="C465:H465"/>
+    <mergeCell ref="I465:L465"/>
+    <mergeCell ref="C466:H466"/>
+    <mergeCell ref="I466:L466"/>
+    <mergeCell ref="C467:H467"/>
+    <mergeCell ref="I467:L467"/>
+    <mergeCell ref="C468:H468"/>
+    <mergeCell ref="I468:L468"/>
+    <mergeCell ref="C469:H469"/>
+    <mergeCell ref="I469:L469"/>
+    <mergeCell ref="B458:C458"/>
+    <mergeCell ref="B459:C459"/>
+    <mergeCell ref="B460:C460"/>
+    <mergeCell ref="D460:E460"/>
+    <mergeCell ref="B461:C461"/>
+    <mergeCell ref="D461:E461"/>
+    <mergeCell ref="C463:H463"/>
+    <mergeCell ref="I463:L463"/>
+    <mergeCell ref="C464:H464"/>
+    <mergeCell ref="I464:L464"/>
+    <mergeCell ref="C450:H450"/>
+    <mergeCell ref="I450:L450"/>
+    <mergeCell ref="C451:H451"/>
+    <mergeCell ref="I451:L451"/>
+    <mergeCell ref="C452:H452"/>
+    <mergeCell ref="I452:L452"/>
+    <mergeCell ref="B456:C456"/>
+    <mergeCell ref="B457:C457"/>
+    <mergeCell ref="D457:E457"/>
+    <mergeCell ref="I445:L445"/>
+    <mergeCell ref="C446:H446"/>
+    <mergeCell ref="I446:L446"/>
+    <mergeCell ref="C447:H447"/>
+    <mergeCell ref="I447:L447"/>
+    <mergeCell ref="C448:H448"/>
+    <mergeCell ref="I448:L448"/>
+    <mergeCell ref="C449:H449"/>
+    <mergeCell ref="I449:L449"/>
+    <mergeCell ref="B439:C439"/>
+    <mergeCell ref="D439:E439"/>
+    <mergeCell ref="B440:C440"/>
+    <mergeCell ref="B441:C441"/>
+    <mergeCell ref="B442:C442"/>
+    <mergeCell ref="D442:E442"/>
+    <mergeCell ref="B443:C443"/>
+    <mergeCell ref="D443:E443"/>
+    <mergeCell ref="C445:H445"/>
+    <mergeCell ref="C432:H432"/>
+    <mergeCell ref="I432:L432"/>
+    <mergeCell ref="C433:H433"/>
+    <mergeCell ref="I433:L433"/>
+    <mergeCell ref="C434:H434"/>
+    <mergeCell ref="I434:L434"/>
+    <mergeCell ref="C435:H435"/>
+    <mergeCell ref="I435:L435"/>
+    <mergeCell ref="B438:C438"/>
+    <mergeCell ref="B426:C426"/>
+    <mergeCell ref="D426:E426"/>
+    <mergeCell ref="C428:H428"/>
+    <mergeCell ref="I428:L428"/>
+    <mergeCell ref="C429:H429"/>
+    <mergeCell ref="I429:L429"/>
+    <mergeCell ref="C430:H430"/>
+    <mergeCell ref="I430:L430"/>
+    <mergeCell ref="C431:H431"/>
+    <mergeCell ref="I431:L431"/>
+    <mergeCell ref="C418:H418"/>
+    <mergeCell ref="I418:L418"/>
+    <mergeCell ref="B421:C421"/>
+    <mergeCell ref="B422:C422"/>
+    <mergeCell ref="D422:E422"/>
+    <mergeCell ref="B423:C423"/>
+    <mergeCell ref="B424:C424"/>
+    <mergeCell ref="B425:C425"/>
+    <mergeCell ref="D425:E425"/>
+    <mergeCell ref="C413:H413"/>
+    <mergeCell ref="I413:L413"/>
+    <mergeCell ref="C414:H414"/>
+    <mergeCell ref="I414:L414"/>
+    <mergeCell ref="C415:H415"/>
+    <mergeCell ref="I415:L415"/>
+    <mergeCell ref="C416:H416"/>
+    <mergeCell ref="I416:L416"/>
+    <mergeCell ref="C417:H417"/>
+    <mergeCell ref="I417:L417"/>
+    <mergeCell ref="B406:C406"/>
+    <mergeCell ref="B407:C407"/>
+    <mergeCell ref="B408:C408"/>
+    <mergeCell ref="D408:E408"/>
+    <mergeCell ref="B409:C409"/>
+    <mergeCell ref="D409:E409"/>
+    <mergeCell ref="C411:H411"/>
+    <mergeCell ref="I411:L411"/>
+    <mergeCell ref="C412:H412"/>
+    <mergeCell ref="I412:L412"/>
+    <mergeCell ref="C399:H399"/>
+    <mergeCell ref="I399:L399"/>
+    <mergeCell ref="C400:H400"/>
+    <mergeCell ref="I400:L400"/>
+    <mergeCell ref="C401:H401"/>
+    <mergeCell ref="I401:L401"/>
+    <mergeCell ref="B404:C404"/>
+    <mergeCell ref="B405:C405"/>
+    <mergeCell ref="D405:E405"/>
+    <mergeCell ref="I394:L394"/>
+    <mergeCell ref="C395:H395"/>
+    <mergeCell ref="I395:L395"/>
+    <mergeCell ref="C396:H396"/>
+    <mergeCell ref="I396:L396"/>
+    <mergeCell ref="C397:H397"/>
+    <mergeCell ref="I397:L397"/>
+    <mergeCell ref="C398:H398"/>
+    <mergeCell ref="I398:L398"/>
+    <mergeCell ref="B388:C388"/>
+    <mergeCell ref="D388:E388"/>
+    <mergeCell ref="B389:C389"/>
+    <mergeCell ref="B390:C390"/>
+    <mergeCell ref="B391:C391"/>
+    <mergeCell ref="D391:E391"/>
+    <mergeCell ref="B392:C392"/>
+    <mergeCell ref="D392:E392"/>
+    <mergeCell ref="C394:H394"/>
+    <mergeCell ref="C380:H380"/>
+    <mergeCell ref="I380:L380"/>
+    <mergeCell ref="C381:H381"/>
+    <mergeCell ref="I381:L381"/>
+    <mergeCell ref="C382:H382"/>
+    <mergeCell ref="I382:L382"/>
+    <mergeCell ref="C383:H383"/>
+    <mergeCell ref="I383:L383"/>
+    <mergeCell ref="B387:C387"/>
+    <mergeCell ref="B374:C374"/>
+    <mergeCell ref="D374:E374"/>
+    <mergeCell ref="C376:H376"/>
+    <mergeCell ref="I376:L376"/>
+    <mergeCell ref="C377:H377"/>
+    <mergeCell ref="I377:L377"/>
+    <mergeCell ref="C378:H378"/>
+    <mergeCell ref="I378:L378"/>
+    <mergeCell ref="C379:H379"/>
+    <mergeCell ref="I379:L379"/>
+    <mergeCell ref="C366:H366"/>
+    <mergeCell ref="I366:L366"/>
+    <mergeCell ref="B369:C369"/>
+    <mergeCell ref="B370:C370"/>
+    <mergeCell ref="D370:E370"/>
+    <mergeCell ref="B371:C371"/>
+    <mergeCell ref="B372:C372"/>
+    <mergeCell ref="B373:C373"/>
+    <mergeCell ref="D373:E373"/>
+    <mergeCell ref="C361:H361"/>
+    <mergeCell ref="I361:L361"/>
+    <mergeCell ref="C362:H362"/>
+    <mergeCell ref="I362:L362"/>
+    <mergeCell ref="C363:H363"/>
+    <mergeCell ref="I363:L363"/>
+    <mergeCell ref="C364:H364"/>
+    <mergeCell ref="I364:L364"/>
+    <mergeCell ref="C365:H365"/>
+    <mergeCell ref="I365:L365"/>
+    <mergeCell ref="B354:C354"/>
+    <mergeCell ref="B355:C355"/>
+    <mergeCell ref="B356:C356"/>
+    <mergeCell ref="D356:E356"/>
+    <mergeCell ref="B357:C357"/>
+    <mergeCell ref="D357:E357"/>
+    <mergeCell ref="C359:H359"/>
+    <mergeCell ref="I359:L359"/>
+    <mergeCell ref="C360:H360"/>
+    <mergeCell ref="I360:L360"/>
+    <mergeCell ref="C347:H347"/>
+    <mergeCell ref="I347:L347"/>
+    <mergeCell ref="C348:H348"/>
+    <mergeCell ref="I348:L348"/>
+    <mergeCell ref="C349:H349"/>
+    <mergeCell ref="I349:L349"/>
+    <mergeCell ref="B352:C352"/>
+    <mergeCell ref="B353:C353"/>
+    <mergeCell ref="D353:E353"/>
+    <mergeCell ref="I342:L342"/>
+    <mergeCell ref="C343:H343"/>
+    <mergeCell ref="I343:L343"/>
+    <mergeCell ref="C344:H344"/>
+    <mergeCell ref="I344:L344"/>
+    <mergeCell ref="C345:H345"/>
+    <mergeCell ref="I345:L345"/>
+    <mergeCell ref="C346:H346"/>
+    <mergeCell ref="I346:L346"/>
+    <mergeCell ref="B336:C336"/>
+    <mergeCell ref="D336:E336"/>
+    <mergeCell ref="B337:C337"/>
+    <mergeCell ref="B338:C338"/>
+    <mergeCell ref="B339:C339"/>
+    <mergeCell ref="D339:E339"/>
+    <mergeCell ref="B340:C340"/>
+    <mergeCell ref="D340:E340"/>
+    <mergeCell ref="C342:H342"/>
+    <mergeCell ref="C329:H329"/>
+    <mergeCell ref="I329:L329"/>
+    <mergeCell ref="C330:H330"/>
+    <mergeCell ref="I330:L330"/>
+    <mergeCell ref="C331:H331"/>
+    <mergeCell ref="I331:L331"/>
+    <mergeCell ref="C332:H332"/>
+    <mergeCell ref="I332:L332"/>
+    <mergeCell ref="B335:C335"/>
+    <mergeCell ref="B323:C323"/>
+    <mergeCell ref="D323:E323"/>
+    <mergeCell ref="C325:H325"/>
+    <mergeCell ref="I325:L325"/>
+    <mergeCell ref="C326:H326"/>
+    <mergeCell ref="I326:L326"/>
+    <mergeCell ref="C327:H327"/>
+    <mergeCell ref="I327:L327"/>
+    <mergeCell ref="C328:H328"/>
+    <mergeCell ref="I328:L328"/>
+    <mergeCell ref="C315:H315"/>
+    <mergeCell ref="I315:L315"/>
+    <mergeCell ref="B318:C318"/>
+    <mergeCell ref="B319:C319"/>
+    <mergeCell ref="D319:E319"/>
+    <mergeCell ref="B320:C320"/>
+    <mergeCell ref="B321:C321"/>
+    <mergeCell ref="B322:C322"/>
+    <mergeCell ref="D322:E322"/>
+    <mergeCell ref="C310:H310"/>
+    <mergeCell ref="I310:L310"/>
+    <mergeCell ref="C311:H311"/>
+    <mergeCell ref="I311:L311"/>
+    <mergeCell ref="C312:H312"/>
+    <mergeCell ref="I312:L312"/>
+    <mergeCell ref="C313:H313"/>
+    <mergeCell ref="I313:L313"/>
+    <mergeCell ref="C314:H314"/>
+    <mergeCell ref="I314:L314"/>
+    <mergeCell ref="B303:C303"/>
+    <mergeCell ref="B304:C304"/>
+    <mergeCell ref="B305:C305"/>
+    <mergeCell ref="D305:E305"/>
+    <mergeCell ref="B306:C306"/>
+    <mergeCell ref="D306:E306"/>
+    <mergeCell ref="C308:H308"/>
+    <mergeCell ref="I308:L308"/>
+    <mergeCell ref="C309:H309"/>
+    <mergeCell ref="I309:L309"/>
+    <mergeCell ref="C297:H297"/>
+    <mergeCell ref="I297:L297"/>
+    <mergeCell ref="C298:H298"/>
+    <mergeCell ref="I298:L298"/>
+    <mergeCell ref="C299:H299"/>
+    <mergeCell ref="I299:L299"/>
+    <mergeCell ref="B301:C301"/>
+    <mergeCell ref="B302:C302"/>
+    <mergeCell ref="D302:E302"/>
+    <mergeCell ref="I292:L292"/>
+    <mergeCell ref="C293:H293"/>
+    <mergeCell ref="I293:L293"/>
+    <mergeCell ref="C294:H294"/>
+    <mergeCell ref="I294:L294"/>
+    <mergeCell ref="C295:H295"/>
+    <mergeCell ref="I295:L295"/>
+    <mergeCell ref="C296:H296"/>
+    <mergeCell ref="I296:L296"/>
+    <mergeCell ref="B286:C286"/>
+    <mergeCell ref="D286:E286"/>
+    <mergeCell ref="B287:C287"/>
+    <mergeCell ref="B288:C288"/>
+    <mergeCell ref="B289:C289"/>
+    <mergeCell ref="D289:E289"/>
+    <mergeCell ref="B290:C290"/>
+    <mergeCell ref="D290:E290"/>
+    <mergeCell ref="C292:H292"/>
+    <mergeCell ref="C279:H279"/>
+    <mergeCell ref="I279:L279"/>
+    <mergeCell ref="C280:H280"/>
+    <mergeCell ref="I280:L280"/>
+    <mergeCell ref="C281:H281"/>
+    <mergeCell ref="I281:L281"/>
+    <mergeCell ref="C282:H282"/>
+    <mergeCell ref="I282:L282"/>
+    <mergeCell ref="B285:C285"/>
+    <mergeCell ref="B273:C273"/>
+    <mergeCell ref="D273:E273"/>
+    <mergeCell ref="C275:H275"/>
+    <mergeCell ref="I275:L275"/>
+    <mergeCell ref="C276:H276"/>
+    <mergeCell ref="I276:L276"/>
+    <mergeCell ref="C277:H277"/>
+    <mergeCell ref="I277:L277"/>
+    <mergeCell ref="C278:H278"/>
+    <mergeCell ref="I278:L278"/>
+    <mergeCell ref="C264:H264"/>
+    <mergeCell ref="I264:L264"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="D269:E269"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="D272:E272"/>
+    <mergeCell ref="C259:H259"/>
+    <mergeCell ref="I259:L259"/>
+    <mergeCell ref="C260:H260"/>
+    <mergeCell ref="I260:L260"/>
+    <mergeCell ref="C261:H261"/>
+    <mergeCell ref="I261:L261"/>
+    <mergeCell ref="C262:H262"/>
+    <mergeCell ref="I262:L262"/>
+    <mergeCell ref="C263:H263"/>
+    <mergeCell ref="I263:L263"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="B254:C254"/>
+    <mergeCell ref="D254:E254"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="D255:E255"/>
+    <mergeCell ref="C257:H257"/>
+    <mergeCell ref="I257:L257"/>
+    <mergeCell ref="C258:H258"/>
+    <mergeCell ref="I258:L258"/>
+    <mergeCell ref="C246:H246"/>
+    <mergeCell ref="I246:L246"/>
+    <mergeCell ref="C247:H247"/>
+    <mergeCell ref="I247:L247"/>
+    <mergeCell ref="C248:H248"/>
+    <mergeCell ref="I248:L248"/>
+    <mergeCell ref="B250:C250"/>
+    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="D251:E251"/>
+    <mergeCell ref="I241:L241"/>
+    <mergeCell ref="C242:H242"/>
+    <mergeCell ref="I242:L242"/>
+    <mergeCell ref="C243:H243"/>
+    <mergeCell ref="I243:L243"/>
+    <mergeCell ref="C244:H244"/>
+    <mergeCell ref="I244:L244"/>
+    <mergeCell ref="C245:H245"/>
+    <mergeCell ref="I245:L245"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="D235:E235"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="B237:C237"/>
+    <mergeCell ref="B238:C238"/>
+    <mergeCell ref="D238:E238"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="C241:H241"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="B234:C234"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
     <mergeCell ref="B41:G41"/>
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="A25:B25"/>
@@ -3609,38 +7279,263 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="B132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="B138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="B151:G151"/>
+    <mergeCell ref="H151:K151"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="H152:K152"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="B156:G156"/>
+    <mergeCell ref="H156:K156"/>
+    <mergeCell ref="B157:G157"/>
+    <mergeCell ref="H157:K157"/>
+    <mergeCell ref="B158:G158"/>
+    <mergeCell ref="H158:K158"/>
+    <mergeCell ref="B153:G153"/>
+    <mergeCell ref="H153:K153"/>
+    <mergeCell ref="B154:G154"/>
+    <mergeCell ref="H154:K154"/>
+    <mergeCell ref="B155:G155"/>
+    <mergeCell ref="H155:K155"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="B170:G170"/>
+    <mergeCell ref="H170:K170"/>
+    <mergeCell ref="B171:G171"/>
+    <mergeCell ref="H171:K171"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="H175:K175"/>
+    <mergeCell ref="B176:G176"/>
+    <mergeCell ref="H176:K176"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="C183:D183"/>
+    <mergeCell ref="B172:G172"/>
+    <mergeCell ref="H172:K172"/>
+    <mergeCell ref="B173:G173"/>
+    <mergeCell ref="H173:K173"/>
+    <mergeCell ref="B174:G174"/>
+    <mergeCell ref="H174:K174"/>
+    <mergeCell ref="B189:G189"/>
+    <mergeCell ref="H189:K189"/>
+    <mergeCell ref="B190:G190"/>
+    <mergeCell ref="H190:K190"/>
+    <mergeCell ref="B191:G191"/>
+    <mergeCell ref="H191:K191"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="B195:G195"/>
+    <mergeCell ref="H195:K195"/>
+    <mergeCell ref="B196:G196"/>
+    <mergeCell ref="H196:K196"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="C200:D200"/>
+    <mergeCell ref="B192:G192"/>
+    <mergeCell ref="H192:K192"/>
+    <mergeCell ref="B193:G193"/>
+    <mergeCell ref="H193:K193"/>
+    <mergeCell ref="B194:G194"/>
+    <mergeCell ref="H194:K194"/>
+    <mergeCell ref="B206:G206"/>
+    <mergeCell ref="H206:K206"/>
+    <mergeCell ref="B207:G207"/>
+    <mergeCell ref="H207:K207"/>
+    <mergeCell ref="B208:G208"/>
+    <mergeCell ref="H208:K208"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="C204:D204"/>
+    <mergeCell ref="B212:G212"/>
+    <mergeCell ref="H212:K212"/>
+    <mergeCell ref="B213:G213"/>
+    <mergeCell ref="H213:K213"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="D218:E218"/>
+    <mergeCell ref="B209:G209"/>
+    <mergeCell ref="H209:K209"/>
+    <mergeCell ref="B210:G210"/>
+    <mergeCell ref="H210:K210"/>
+    <mergeCell ref="B211:G211"/>
+    <mergeCell ref="H211:K211"/>
+    <mergeCell ref="C224:H224"/>
+    <mergeCell ref="I224:L224"/>
+    <mergeCell ref="C225:H225"/>
+    <mergeCell ref="I225:L225"/>
+    <mergeCell ref="C226:H226"/>
+    <mergeCell ref="I226:L226"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="C230:H230"/>
+    <mergeCell ref="I230:L230"/>
+    <mergeCell ref="C231:H231"/>
+    <mergeCell ref="I231:L231"/>
+    <mergeCell ref="C227:H227"/>
+    <mergeCell ref="I227:L227"/>
+    <mergeCell ref="C228:H228"/>
+    <mergeCell ref="I228:L228"/>
+    <mergeCell ref="C229:H229"/>
+    <mergeCell ref="I229:L229"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
